--- a/dados_graduacao/Tabelas_Anurio_DEG.xlsx
+++ b/dados_graduacao/Tabelas_Anurio_DEG.xlsx
@@ -1,18 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DAI-DPO\GITHUB\ANUARIO\anuario2020\dados_graduacao\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-435" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9168"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela 12" sheetId="2" r:id="rId1"/>
+    <sheet name="tab" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="262">
   <si>
     <t>N. Ord.</t>
   </si>
@@ -804,13 +810,19 @@
   </si>
   <si>
     <t xml:space="preserve">Legenda: D: Decreto   P: Portaria   AR: Ato da Reitoria   C: Resolução do CEPE   </t>
+  </si>
+  <si>
+    <t>Perm. Mín.</t>
+  </si>
+  <si>
+    <t>Perm. Máx.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1056,7 +1068,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1075,6 +1087,37 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1097,9 +1140,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1110,29 +1155,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1152,7 +1179,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Fontes"/>
@@ -1272,7 +1299,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1304,9 +1331,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1338,6 +1366,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -1513,87 +1542,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O179"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="A174" sqref="A174:I174"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72.5703125" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.5546875" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.109375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" customHeight="1">
-      <c r="A1" s="14" t="str">
+    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="str">
         <f>"Tabela 12 - Dados e características dos cursos de graduação oferecidos pela UnB, "  &amp;( [1]Fontes!B2)</f>
         <v>Tabela 12 - Dados e características dos cursos de graduação oferecidos pela UnB, 2019</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A3" s="16" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A4" s="17"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="12" t="s">
+      <c r="I3" s="24"/>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="30"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="18"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="I4" s="26"/>
+    </row>
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="31"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
       <c r="H5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1601,22 +1632,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="O6" s="20"/>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A7" s="21">
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12">
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1640,25 +1671,25 @@
       <c r="H7" s="3">
         <v>8</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="13">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A8" s="23" t="s">
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A9" s="21">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12">
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1670,7 +1701,7 @@
       <c r="D9" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="15">
         <v>42110</v>
       </c>
       <c r="F9" s="3">
@@ -1682,12 +1713,12 @@
       <c r="H9" s="3">
         <v>8</v>
       </c>
-      <c r="I9" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A10" s="21">
+      <c r="I9" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="12">
         <v>3</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1699,7 +1730,7 @@
       <c r="D10" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="15">
         <v>26612</v>
       </c>
       <c r="F10" s="3">
@@ -1711,12 +1742,12 @@
       <c r="H10" s="3">
         <v>8</v>
       </c>
-      <c r="I10" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A11" s="21">
+      <c r="I10" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12">
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1728,7 +1759,7 @@
       <c r="D11" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="15">
         <v>26612</v>
       </c>
       <c r="F11" s="3">
@@ -1740,12 +1771,12 @@
       <c r="H11" s="3">
         <v>6</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A12" s="21">
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12">
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1757,7 +1788,7 @@
       <c r="D12" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="15">
         <v>26612</v>
       </c>
       <c r="F12" s="3">
@@ -1769,25 +1800,25 @@
       <c r="H12" s="3">
         <v>8</v>
       </c>
-      <c r="I12" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A13" s="25" t="s">
+      <c r="I12" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A14" s="21">
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+    </row>
+    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="12">
         <v>6</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1799,7 +1830,7 @@
       <c r="D14" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="15">
         <v>25384</v>
       </c>
       <c r="F14" s="3">
@@ -1811,12 +1842,12 @@
       <c r="H14" s="3">
         <v>8</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="13">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A15" s="21">
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="12">
         <v>7</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1840,12 +1871,12 @@
       <c r="H15" s="3">
         <v>8</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="13">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A16" s="21">
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="12">
         <v>8</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1857,7 +1888,7 @@
       <c r="D16" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="15">
         <v>29347</v>
       </c>
       <c r="F16" s="3">
@@ -1869,12 +1900,12 @@
       <c r="H16" s="3">
         <v>8</v>
       </c>
-      <c r="I16" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A17" s="21">
+      <c r="I16" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="12">
         <v>9</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -1886,7 +1917,7 @@
       <c r="D17" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="15">
         <v>29347</v>
       </c>
       <c r="F17" s="3">
@@ -1898,12 +1929,12 @@
       <c r="H17" s="3">
         <v>10</v>
       </c>
-      <c r="I17" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A18" s="21">
+      <c r="I17" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="12">
         <v>10</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1915,7 +1946,7 @@
       <c r="D18" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="15">
         <v>25384</v>
       </c>
       <c r="F18" s="3">
@@ -1927,12 +1958,12 @@
       <c r="H18" s="3">
         <v>6</v>
       </c>
-      <c r="I18" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A19" s="21">
+      <c r="I18" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="12">
         <v>11</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1956,25 +1987,25 @@
       <c r="H19" s="3">
         <v>8</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="13">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A20" s="23" t="s">
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A21" s="21">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="12">
         <v>12</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -1986,7 +2017,7 @@
       <c r="D21" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="15">
         <v>24597</v>
       </c>
       <c r="F21" s="3">
@@ -1998,12 +2029,12 @@
       <c r="H21" s="3">
         <v>9</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="13">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A22" s="21">
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="12">
         <v>13</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -2015,7 +2046,7 @@
       <c r="D22" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="15">
         <v>24597</v>
       </c>
       <c r="F22" s="3">
@@ -2027,25 +2058,25 @@
       <c r="H22" s="3">
         <v>9</v>
       </c>
-      <c r="I22" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A23" s="23" t="s">
+      <c r="I22" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A24" s="21">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+    </row>
+    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="12">
         <v>14</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -2057,7 +2088,7 @@
       <c r="D24" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="15">
         <v>27849</v>
       </c>
       <c r="F24" s="3">
@@ -2069,12 +2100,12 @@
       <c r="H24" s="3">
         <v>8</v>
       </c>
-      <c r="I24" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A25" s="21">
+      <c r="I24" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="12">
         <v>15</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -2098,12 +2129,12 @@
       <c r="H25" s="3">
         <v>8</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="13">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A26" s="21">
+    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="12">
         <v>16</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -2115,7 +2146,7 @@
       <c r="D26" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="15">
         <v>37464</v>
       </c>
       <c r="F26" s="3">
@@ -2127,25 +2158,25 @@
       <c r="H26" s="3">
         <v>10</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="13">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A27" s="23" t="s">
+    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A28" s="21">
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="12">
         <v>17</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -2169,12 +2200,12 @@
       <c r="H28" s="3">
         <v>10</v>
       </c>
-      <c r="I28" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A29" s="21">
+      <c r="I28" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="12">
         <v>18</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -2186,7 +2217,7 @@
       <c r="D29" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="15">
         <v>40917</v>
       </c>
       <c r="F29" s="3">
@@ -2198,12 +2229,12 @@
       <c r="H29" s="3">
         <v>10</v>
       </c>
-      <c r="I29" s="22">
+      <c r="I29" s="13">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A30" s="21">
+    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="12">
         <v>19</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -2227,12 +2258,12 @@
       <c r="H30" s="3">
         <v>10</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I30" s="13">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A31" s="21">
+    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="12">
         <v>20</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -2256,12 +2287,12 @@
       <c r="H31" s="3">
         <v>8</v>
       </c>
-      <c r="I31" s="22">
+      <c r="I31" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A32" s="21">
+    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="12">
         <v>21</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -2273,7 +2304,7 @@
       <c r="D32" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E32" s="15">
         <v>39429</v>
       </c>
       <c r="F32" s="3">
@@ -2285,12 +2316,12 @@
       <c r="H32" s="3">
         <v>8</v>
       </c>
-      <c r="I32" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A33" s="21">
+      <c r="I32" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="12">
         <v>22</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -2302,7 +2333,7 @@
       <c r="D33" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="15">
         <v>42110</v>
       </c>
       <c r="F33" s="3">
@@ -2314,25 +2345,25 @@
       <c r="H33" s="3">
         <v>8</v>
       </c>
-      <c r="I33" s="22">
+      <c r="I33" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A34" s="23" t="s">
+    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A35" s="21">
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+    </row>
+    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="12">
         <v>23</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -2344,7 +2375,7 @@
       <c r="D35" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="E35" s="24">
+      <c r="E35" s="15">
         <v>34981</v>
       </c>
       <c r="F35" s="3">
@@ -2356,12 +2387,12 @@
       <c r="H35" s="3">
         <v>6</v>
       </c>
-      <c r="I35" s="22">
+      <c r="I35" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A36" s="21">
+    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="12">
         <v>24</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -2373,7 +2404,7 @@
       <c r="D36" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="E36" s="24">
+      <c r="E36" s="15">
         <v>26612</v>
       </c>
       <c r="F36" s="3">
@@ -2385,12 +2416,12 @@
       <c r="H36" s="3">
         <v>8</v>
       </c>
-      <c r="I36" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A37" s="21">
+      <c r="I36" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="12">
         <v>25</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -2414,25 +2445,25 @@
       <c r="H37" s="3">
         <v>7</v>
       </c>
-      <c r="I37" s="22">
+      <c r="I37" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A38" s="23" t="s">
+    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A39" s="21">
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+    </row>
+    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="12">
         <v>26</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -2444,7 +2475,7 @@
       <c r="D39" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E39" s="24">
+      <c r="E39" s="15">
         <v>25384</v>
       </c>
       <c r="F39" s="3">
@@ -2456,12 +2487,12 @@
       <c r="H39" s="3">
         <v>10</v>
       </c>
-      <c r="I39" s="22">
+      <c r="I39" s="13">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A40" s="21">
+    <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="12">
         <v>27</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -2473,7 +2504,7 @@
       <c r="D40" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E40" s="24">
+      <c r="E40" s="15">
         <v>25384</v>
       </c>
       <c r="F40" s="3">
@@ -2485,25 +2516,25 @@
       <c r="H40" s="3">
         <v>10</v>
       </c>
-      <c r="I40" s="22">
+      <c r="I40" s="13">
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A41" s="23" t="s">
+    <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A42" s="21">
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+    </row>
+    <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="12">
         <v>28</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -2515,7 +2546,7 @@
       <c r="D42" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E42" s="24">
+      <c r="E42" s="15">
         <v>41421</v>
       </c>
       <c r="F42" s="3">
@@ -2527,12 +2558,12 @@
       <c r="H42" s="3">
         <v>10</v>
       </c>
-      <c r="I42" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A43" s="21">
+      <c r="I42" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="12">
         <v>29</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -2544,7 +2575,7 @@
       <c r="D43" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="E43" s="24">
+      <c r="E43" s="15">
         <v>26470</v>
       </c>
       <c r="F43" s="3">
@@ -2556,12 +2587,12 @@
       <c r="H43" s="3">
         <v>6</v>
       </c>
-      <c r="I43" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A44" s="21">
+      <c r="I43" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="12">
         <v>30</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -2573,7 +2604,7 @@
       <c r="D44" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="E44" s="24">
+      <c r="E44" s="15">
         <v>26470</v>
       </c>
       <c r="F44" s="3">
@@ -2585,25 +2616,25 @@
       <c r="H44" s="3">
         <v>6</v>
       </c>
-      <c r="I44" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A45" s="23" t="s">
+      <c r="I44" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-    </row>
-    <row r="46" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A46" s="21">
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+    </row>
+    <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="12">
         <v>31</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -2615,7 +2646,7 @@
       <c r="D46" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E46" s="24">
+      <c r="E46" s="15">
         <v>39429</v>
       </c>
       <c r="F46" s="3">
@@ -2627,12 +2658,12 @@
       <c r="H46" s="3">
         <v>8</v>
       </c>
-      <c r="I46" s="22">
+      <c r="I46" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A47" s="21">
+    <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="12">
         <v>32</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -2656,12 +2687,12 @@
       <c r="H47" s="3">
         <v>8</v>
       </c>
-      <c r="I47" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A48" s="21">
+      <c r="I47" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="12">
         <v>33</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -2673,7 +2704,7 @@
       <c r="D48" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="E48" s="24">
+      <c r="E48" s="15">
         <v>39804</v>
       </c>
       <c r="F48" s="3">
@@ -2685,25 +2716,25 @@
       <c r="H48" s="3">
         <v>6</v>
       </c>
-      <c r="I48" s="22">
+      <c r="I48" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A49" s="23" t="s">
+    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-    </row>
-    <row r="50" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A50" s="21">
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+    </row>
+    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="12">
         <v>34</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -2727,12 +2758,12 @@
       <c r="H50" s="3">
         <v>8</v>
       </c>
-      <c r="I50" s="22">
+      <c r="I50" s="13">
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A51" s="21">
+    <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="12">
         <v>35</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -2744,7 +2775,7 @@
       <c r="D51" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E51" s="24">
+      <c r="E51" s="15">
         <v>39429</v>
       </c>
       <c r="F51" s="3">
@@ -2756,12 +2787,12 @@
       <c r="H51" s="3">
         <v>8</v>
       </c>
-      <c r="I51" s="22">
+      <c r="I51" s="13">
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A52" s="21">
+    <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="12">
         <v>36</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -2773,7 +2804,7 @@
       <c r="D52" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E52" s="24">
+      <c r="E52" s="15">
         <v>39429</v>
       </c>
       <c r="F52" s="3">
@@ -2785,12 +2816,12 @@
       <c r="H52" s="3">
         <v>10</v>
       </c>
-      <c r="I52" s="22">
+      <c r="I52" s="13">
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A53" s="21">
+    <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="12">
         <v>37</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -2802,7 +2833,7 @@
       <c r="D53" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E53" s="24">
+      <c r="E53" s="15">
         <v>39429</v>
       </c>
       <c r="F53" s="3">
@@ -2814,12 +2845,12 @@
       <c r="H53" s="3">
         <v>10</v>
       </c>
-      <c r="I53" s="22">
+      <c r="I53" s="13">
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A54" s="21">
+    <row r="54" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="12">
         <v>38</v>
       </c>
       <c r="B54" s="5" t="s">
@@ -2831,7 +2862,7 @@
       <c r="D54" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E54" s="24">
+      <c r="E54" s="15">
         <v>39429</v>
       </c>
       <c r="F54" s="3">
@@ -2843,12 +2874,12 @@
       <c r="H54" s="3">
         <v>10</v>
       </c>
-      <c r="I54" s="22">
+      <c r="I54" s="13">
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A55" s="21">
+    <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="12">
         <v>39</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -2860,7 +2891,7 @@
       <c r="D55" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E55" s="24">
+      <c r="E55" s="15">
         <v>39443</v>
       </c>
       <c r="F55" s="3">
@@ -2872,25 +2903,25 @@
       <c r="H55" s="3">
         <v>10</v>
       </c>
-      <c r="I55" s="22">
+      <c r="I55" s="13">
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A56" s="23" t="s">
+    <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-    </row>
-    <row r="57" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A57" s="21">
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+    </row>
+    <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="12">
         <v>40</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -2902,7 +2933,7 @@
       <c r="D57" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E57" s="24">
+      <c r="E57" s="15">
         <v>26497</v>
       </c>
       <c r="F57" s="3">
@@ -2914,25 +2945,25 @@
       <c r="H57" s="3">
         <v>10</v>
       </c>
-      <c r="I57" s="22">
+      <c r="I57" s="13">
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A58" s="23" t="s">
+    <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-    </row>
-    <row r="59" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A59" s="21">
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+    </row>
+    <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="12">
         <v>41</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -2944,7 +2975,7 @@
       <c r="D59" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="E59" s="24">
+      <c r="E59" s="15">
         <v>37784</v>
       </c>
       <c r="F59" s="3">
@@ -2956,12 +2987,12 @@
       <c r="H59" s="3">
         <v>10</v>
       </c>
-      <c r="I59" s="22">
+      <c r="I59" s="13">
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A60" s="21">
+    <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="12">
         <v>42</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -2973,7 +3004,7 @@
       <c r="D60" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="E60" s="24">
+      <c r="E60" s="15">
         <v>37784</v>
       </c>
       <c r="F60" s="3">
@@ -2985,12 +3016,12 @@
       <c r="H60" s="3">
         <v>12</v>
       </c>
-      <c r="I60" s="22">
+      <c r="I60" s="13">
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A61" s="21">
+    <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="12">
         <v>43</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -3002,7 +3033,7 @@
       <c r="D61" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="E61" s="24">
+      <c r="E61" s="15">
         <v>29487</v>
       </c>
       <c r="F61" s="3">
@@ -3014,12 +3045,12 @@
       <c r="H61" s="3">
         <v>10</v>
       </c>
-      <c r="I61" s="22">
+      <c r="I61" s="13">
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A62" s="21">
+    <row r="62" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="12">
         <v>44</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -3031,7 +3062,7 @@
       <c r="D62" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="E62" s="24">
+      <c r="E62" s="15">
         <v>29487</v>
       </c>
       <c r="F62" s="3">
@@ -3043,12 +3074,12 @@
       <c r="H62" s="3">
         <v>8</v>
       </c>
-      <c r="I62" s="22">
+      <c r="I62" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A63" s="21">
+    <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="12">
         <v>45</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -3072,12 +3103,12 @@
       <c r="H63" s="3">
         <v>8</v>
       </c>
-      <c r="I63" s="22">
+      <c r="I63" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A64" s="21">
+    <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="12">
         <v>46</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -3089,7 +3120,7 @@
       <c r="D64" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="E64" s="24">
+      <c r="E64" s="15">
         <v>29642</v>
       </c>
       <c r="F64" s="3">
@@ -3101,12 +3132,12 @@
       <c r="H64" s="3">
         <v>6</v>
       </c>
-      <c r="I64" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A65" s="21">
+      <c r="I64" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="12">
         <v>47</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -3118,7 +3149,7 @@
       <c r="D65" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="E65" s="24">
+      <c r="E65" s="15">
         <v>31119</v>
       </c>
       <c r="F65" s="3">
@@ -3130,25 +3161,25 @@
       <c r="H65" s="3">
         <v>10</v>
       </c>
-      <c r="I65" s="22">
+      <c r="I65" s="13">
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A66" s="23" t="s">
+    <row r="66" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B66" s="23"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="23"/>
-    </row>
-    <row r="67" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A67" s="21">
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+    </row>
+    <row r="67" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="12">
         <v>48</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -3160,7 +3191,7 @@
       <c r="D67" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E67" s="24">
+      <c r="E67" s="15">
         <v>39429</v>
       </c>
       <c r="F67" s="3">
@@ -3172,12 +3203,12 @@
       <c r="H67" s="3">
         <v>10</v>
       </c>
-      <c r="I67" s="22">
+      <c r="I67" s="13">
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A68" s="21">
+    <row r="68" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="12">
         <v>49</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -3189,7 +3220,7 @@
       <c r="D68" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E68" s="24">
+      <c r="E68" s="15">
         <v>26752</v>
       </c>
       <c r="F68" s="3">
@@ -3201,12 +3232,12 @@
       <c r="H68" s="3">
         <v>8</v>
       </c>
-      <c r="I68" s="22">
+      <c r="I68" s="13">
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A69" s="21">
+    <row r="69" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="12">
         <v>50</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -3218,7 +3249,7 @@
       <c r="D69" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E69" s="24">
+      <c r="E69" s="15">
         <v>39429</v>
       </c>
       <c r="F69" s="3">
@@ -3230,12 +3261,12 @@
       <c r="H69" s="3">
         <v>10</v>
       </c>
-      <c r="I69" s="22">
+      <c r="I69" s="13">
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A70" s="21">
+    <row r="70" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="12">
         <v>51</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -3247,7 +3278,7 @@
       <c r="D70" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E70" s="24">
+      <c r="E70" s="15">
         <v>38167</v>
       </c>
       <c r="F70" s="3">
@@ -3259,12 +3290,12 @@
       <c r="H70" s="3">
         <v>9</v>
       </c>
-      <c r="I70" s="22">
+      <c r="I70" s="13">
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A71" s="21">
+    <row r="71" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="12">
         <v>52</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -3276,7 +3307,7 @@
       <c r="D71" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E71" s="24">
+      <c r="E71" s="15">
         <v>26752</v>
       </c>
       <c r="F71" s="3">
@@ -3288,12 +3319,12 @@
       <c r="H71" s="3">
         <v>8</v>
       </c>
-      <c r="I71" s="22">
+      <c r="I71" s="13">
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A72" s="21">
+    <row r="72" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="12">
         <v>53</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -3305,7 +3336,7 @@
       <c r="D72" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="E72" s="24">
+      <c r="E72" s="15">
         <v>28780</v>
       </c>
       <c r="F72" s="3">
@@ -3317,12 +3348,12 @@
       <c r="H72" s="3">
         <v>8</v>
       </c>
-      <c r="I72" s="22">
+      <c r="I72" s="13">
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A73" s="21">
+    <row r="73" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="12">
         <v>54</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -3334,7 +3365,7 @@
       <c r="D73" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E73" s="24">
+      <c r="E73" s="15">
         <v>26752</v>
       </c>
       <c r="F73" s="3">
@@ -3346,12 +3377,12 @@
       <c r="H73" s="3">
         <v>8</v>
       </c>
-      <c r="I73" s="22">
+      <c r="I73" s="13">
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A74" s="21">
+    <row r="74" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="12">
         <v>55</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -3363,7 +3394,7 @@
       <c r="D74" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="E74" s="24">
+      <c r="E74" s="15">
         <v>38308</v>
       </c>
       <c r="F74" s="3">
@@ -3375,25 +3406,25 @@
       <c r="H74" s="3">
         <v>8</v>
       </c>
-      <c r="I74" s="22">
+      <c r="I74" s="13">
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A75" s="23" t="s">
+    <row r="75" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B75" s="23"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="23"/>
-      <c r="I75" s="23"/>
-    </row>
-    <row r="76" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A76" s="21">
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+    </row>
+    <row r="76" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="12">
         <v>56</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -3417,12 +3448,12 @@
       <c r="H76" s="3">
         <v>6</v>
       </c>
-      <c r="I76" s="22">
+      <c r="I76" s="13">
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A77" s="21">
+    <row r="77" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="12">
         <v>57</v>
       </c>
       <c r="B77" s="5" t="s">
@@ -3446,12 +3477,12 @@
       <c r="H77" s="3">
         <v>7</v>
       </c>
-      <c r="I77" s="22">
+      <c r="I77" s="13">
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A78" s="21">
+    <row r="78" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="12">
         <v>58</v>
       </c>
       <c r="B78" s="5" t="s">
@@ -3475,12 +3506,12 @@
       <c r="H78" s="3">
         <v>6</v>
       </c>
-      <c r="I78" s="22">
+      <c r="I78" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A79" s="21">
+    <row r="79" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="12">
         <v>59</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -3504,12 +3535,12 @@
       <c r="H79" s="3">
         <v>8</v>
       </c>
-      <c r="I79" s="22">
+      <c r="I79" s="13">
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A80" s="21">
+    <row r="80" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="12">
         <v>60</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -3533,25 +3564,25 @@
       <c r="H80" s="3">
         <v>8</v>
       </c>
-      <c r="I80" s="22">
+      <c r="I80" s="13">
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A81" s="23" t="s">
+    <row r="81" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B81" s="23"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="23"/>
-      <c r="I81" s="23"/>
-    </row>
-    <row r="82" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A82" s="21">
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+    </row>
+    <row r="82" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="12">
         <v>61</v>
       </c>
       <c r="B82" s="5" t="s">
@@ -3563,7 +3594,7 @@
       <c r="D82" s="3">
         <v>40</v>
       </c>
-      <c r="E82" s="24">
+      <c r="E82" s="15">
         <v>39429</v>
       </c>
       <c r="F82" s="3">
@@ -3575,12 +3606,12 @@
       <c r="H82" s="3">
         <v>8</v>
       </c>
-      <c r="I82" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A83" s="21">
+      <c r="I82" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="12">
         <v>62</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -3592,7 +3623,7 @@
       <c r="D83" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E83" s="24">
+      <c r="E83" s="15">
         <v>26697</v>
       </c>
       <c r="F83" s="3">
@@ -3604,12 +3635,12 @@
       <c r="H83" s="3">
         <v>8</v>
       </c>
-      <c r="I83" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A84" s="21">
+      <c r="I83" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="12">
         <v>63</v>
       </c>
       <c r="B84" s="5" t="s">
@@ -3633,12 +3664,12 @@
       <c r="H84" s="3">
         <v>6</v>
       </c>
-      <c r="I84" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A85" s="21">
+      <c r="I84" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="12">
         <v>64</v>
       </c>
       <c r="B85" s="5" t="s">
@@ -3650,7 +3681,7 @@
       <c r="D85" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E85" s="24">
+      <c r="E85" s="15">
         <v>26697</v>
       </c>
       <c r="F85" s="3">
@@ -3662,12 +3693,12 @@
       <c r="H85" s="3">
         <v>6</v>
       </c>
-      <c r="I85" s="22">
+      <c r="I85" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A86" s="21">
+    <row r="86" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="12">
         <v>65</v>
       </c>
       <c r="B86" s="5" t="s">
@@ -3679,7 +3710,7 @@
       <c r="D86" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E86" s="24">
+      <c r="E86" s="15">
         <v>26697</v>
       </c>
       <c r="F86" s="3">
@@ -3691,25 +3722,25 @@
       <c r="H86" s="3">
         <v>8</v>
       </c>
-      <c r="I86" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A87" s="23" t="s">
+      <c r="I86" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B87" s="23"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="23"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="23"/>
-      <c r="H87" s="23"/>
-      <c r="I87" s="23"/>
-    </row>
-    <row r="88" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A88" s="21">
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="19"/>
+      <c r="I87" s="19"/>
+    </row>
+    <row r="88" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="12">
         <v>66</v>
       </c>
       <c r="B88" s="5" t="s">
@@ -3721,7 +3752,7 @@
       <c r="D88" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E88" s="24">
+      <c r="E88" s="15">
         <v>26613</v>
       </c>
       <c r="F88" s="3">
@@ -3733,12 +3764,12 @@
       <c r="H88" s="3">
         <v>6</v>
       </c>
-      <c r="I88" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A89" s="21">
+      <c r="I88" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="12">
         <v>67</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -3750,7 +3781,7 @@
       <c r="D89" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E89" s="24">
+      <c r="E89" s="15">
         <v>26613</v>
       </c>
       <c r="F89" s="3">
@@ -3762,12 +3793,12 @@
       <c r="H89" s="3">
         <v>6</v>
       </c>
-      <c r="I89" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A90" s="21">
+      <c r="I89" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="12">
         <v>68</v>
       </c>
       <c r="B90" s="5" t="s">
@@ -3779,7 +3810,7 @@
       <c r="D90" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E90" s="24">
+      <c r="E90" s="15">
         <v>26613</v>
       </c>
       <c r="F90" s="3">
@@ -3791,12 +3822,12 @@
       <c r="H90" s="3">
         <v>6</v>
       </c>
-      <c r="I90" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A91" s="21">
+      <c r="I90" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="12">
         <v>69</v>
       </c>
       <c r="B91" s="5" t="s">
@@ -3808,7 +3839,7 @@
       <c r="D91" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E91" s="24">
+      <c r="E91" s="15">
         <v>26613</v>
       </c>
       <c r="F91" s="3">
@@ -3820,25 +3851,25 @@
       <c r="H91" s="3">
         <v>6</v>
       </c>
-      <c r="I91" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A92" s="23" t="s">
+      <c r="I91" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="B92" s="23"/>
-      <c r="C92" s="23"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="23"/>
-      <c r="H92" s="23"/>
-      <c r="I92" s="23"/>
-    </row>
-    <row r="93" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A93" s="21">
+      <c r="B92" s="19"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="19"/>
+      <c r="I92" s="19"/>
+    </row>
+    <row r="93" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="12">
         <v>70</v>
       </c>
       <c r="B93" s="5" t="s">
@@ -3850,7 +3881,7 @@
       <c r="D93" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="E93" s="24">
+      <c r="E93" s="15">
         <v>35860</v>
       </c>
       <c r="F93" s="3">
@@ -3862,12 +3893,12 @@
       <c r="H93" s="3">
         <v>8</v>
       </c>
-      <c r="I93" s="22">
+      <c r="I93" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A94" s="21">
+    <row r="94" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="12">
         <v>71</v>
       </c>
       <c r="B94" s="5" t="s">
@@ -3879,7 +3910,7 @@
       <c r="D94" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="E94" s="24">
+      <c r="E94" s="15">
         <v>35860</v>
       </c>
       <c r="F94" s="3">
@@ -3891,12 +3922,12 @@
       <c r="H94" s="3">
         <v>8</v>
       </c>
-      <c r="I94" s="22">
+      <c r="I94" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A95" s="21">
+    <row r="95" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="12">
         <v>72</v>
       </c>
       <c r="B95" s="5" t="s">
@@ -3908,7 +3939,7 @@
       <c r="D95" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="E95" s="24">
+      <c r="E95" s="15">
         <v>35860</v>
       </c>
       <c r="F95" s="3">
@@ -3920,12 +3951,12 @@
       <c r="H95" s="3">
         <v>8</v>
       </c>
-      <c r="I95" s="22">
+      <c r="I95" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A96" s="21">
+    <row r="96" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="12">
         <v>73</v>
       </c>
       <c r="B96" s="5" t="s">
@@ -3937,7 +3968,7 @@
       <c r="D96" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E96" s="24">
+      <c r="E96" s="15">
         <v>36263</v>
       </c>
       <c r="F96" s="3">
@@ -3949,12 +3980,12 @@
       <c r="H96" s="3">
         <v>8</v>
       </c>
-      <c r="I96" s="22">
+      <c r="I96" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A97" s="21">
+    <row r="97" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="12">
         <v>74</v>
       </c>
       <c r="B97" s="5" t="s">
@@ -3966,7 +3997,7 @@
       <c r="D97" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E97" s="24">
+      <c r="E97" s="15">
         <v>36263</v>
       </c>
       <c r="F97" s="3">
@@ -3978,12 +4009,12 @@
       <c r="H97" s="3">
         <v>8</v>
       </c>
-      <c r="I97" s="22">
+      <c r="I97" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A98" s="21">
+    <row r="98" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="12">
         <v>75</v>
       </c>
       <c r="B98" s="5" t="s">
@@ -3995,7 +4026,7 @@
       <c r="D98" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E98" s="24">
+      <c r="E98" s="15">
         <v>36263</v>
       </c>
       <c r="F98" s="3">
@@ -4007,12 +4038,12 @@
       <c r="H98" s="3">
         <v>8</v>
       </c>
-      <c r="I98" s="22">
+      <c r="I98" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A99" s="21">
+    <row r="99" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="12">
         <v>76</v>
       </c>
       <c r="B99" s="5" t="s">
@@ -4024,7 +4055,7 @@
       <c r="D99" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="E99" s="24">
+      <c r="E99" s="15">
         <v>41416</v>
       </c>
       <c r="F99" s="3">
@@ -4036,12 +4067,12 @@
       <c r="H99" s="3">
         <v>8</v>
       </c>
-      <c r="I99" s="22">
+      <c r="I99" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A100" s="21">
+    <row r="100" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="12">
         <v>77</v>
       </c>
       <c r="B100" s="5" t="s">
@@ -4053,7 +4084,7 @@
       <c r="D100" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="E100" s="24">
+      <c r="E100" s="15">
         <v>36066</v>
       </c>
       <c r="F100" s="3">
@@ -4065,12 +4096,12 @@
       <c r="H100" s="3">
         <v>7</v>
       </c>
-      <c r="I100" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A101" s="21">
+      <c r="I100" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="12">
         <v>78</v>
       </c>
       <c r="B101" s="5" t="s">
@@ -4082,7 +4113,7 @@
       <c r="D101" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="E101" s="24">
+      <c r="E101" s="15">
         <v>36066</v>
       </c>
       <c r="F101" s="3">
@@ -4094,12 +4125,12 @@
       <c r="H101" s="3">
         <v>7</v>
       </c>
-      <c r="I101" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A102" s="21">
+      <c r="I101" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="12">
         <v>79</v>
       </c>
       <c r="B102" s="5" t="s">
@@ -4111,7 +4142,7 @@
       <c r="D102" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E102" s="24">
+      <c r="E102" s="15">
         <v>29382</v>
       </c>
       <c r="F102" s="3">
@@ -4123,12 +4154,12 @@
       <c r="H102" s="3">
         <v>6</v>
       </c>
-      <c r="I102" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A103" s="21">
+      <c r="I102" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="12">
         <v>80</v>
       </c>
       <c r="B103" s="5" t="s">
@@ -4140,7 +4171,7 @@
       <c r="D103" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E103" s="24">
+      <c r="E103" s="15">
         <v>29382</v>
       </c>
       <c r="F103" s="3">
@@ -4152,12 +4183,12 @@
       <c r="H103" s="3">
         <v>6</v>
       </c>
-      <c r="I103" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A104" s="21">
+      <c r="I103" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="12">
         <v>81</v>
       </c>
       <c r="B104" s="5" t="s">
@@ -4169,7 +4200,7 @@
       <c r="D104" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="E104" s="24">
+      <c r="E104" s="15">
         <v>27849</v>
       </c>
       <c r="F104" s="3">
@@ -4181,12 +4212,12 @@
       <c r="H104" s="3">
         <v>6</v>
       </c>
-      <c r="I104" s="22">
+      <c r="I104" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A105" s="21">
+    <row r="105" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="12">
         <v>82</v>
       </c>
       <c r="B105" s="5" t="s">
@@ -4198,7 +4229,7 @@
       <c r="D105" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="E105" s="24">
+      <c r="E105" s="15">
         <v>27849</v>
       </c>
       <c r="F105" s="3">
@@ -4210,12 +4241,12 @@
       <c r="H105" s="3">
         <v>12</v>
       </c>
-      <c r="I105" s="22">
+      <c r="I105" s="13">
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A106" s="21">
+    <row r="106" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="12">
         <v>83</v>
       </c>
       <c r="B106" s="5" t="s">
@@ -4227,7 +4258,7 @@
       <c r="D106" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="E106" s="24">
+      <c r="E106" s="15">
         <v>27849</v>
       </c>
       <c r="F106" s="3">
@@ -4239,12 +4270,12 @@
       <c r="H106" s="3">
         <v>12</v>
       </c>
-      <c r="I106" s="22">
+      <c r="I106" s="13">
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A107" s="21">
+    <row r="107" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="12">
         <v>84</v>
       </c>
       <c r="B107" s="5" t="s">
@@ -4256,7 +4287,7 @@
       <c r="D107" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="E107" s="24">
+      <c r="E107" s="15">
         <v>27849</v>
       </c>
       <c r="F107" s="3">
@@ -4268,12 +4299,12 @@
       <c r="H107" s="3">
         <v>6</v>
       </c>
-      <c r="I107" s="22">
+      <c r="I107" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A108" s="21">
+    <row r="108" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="12">
         <v>85</v>
       </c>
       <c r="B108" s="5" t="s">
@@ -4285,7 +4316,7 @@
       <c r="D108" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="E108" s="24">
+      <c r="E108" s="15">
         <v>41416</v>
       </c>
       <c r="F108" s="3">
@@ -4297,12 +4328,12 @@
       <c r="H108" s="3">
         <v>8</v>
       </c>
-      <c r="I108" s="22">
+      <c r="I108" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A109" s="21">
+    <row r="109" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="12">
         <v>86</v>
       </c>
       <c r="B109" s="5" t="s">
@@ -4314,7 +4345,7 @@
       <c r="D109" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="E109" s="24">
+      <c r="E109" s="15">
         <v>27849</v>
       </c>
       <c r="F109" s="3">
@@ -4326,12 +4357,12 @@
       <c r="H109" s="3">
         <v>8</v>
       </c>
-      <c r="I109" s="22">
+      <c r="I109" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A110" s="21">
+    <row r="110" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="12">
         <v>87</v>
       </c>
       <c r="B110" s="5" t="s">
@@ -4343,7 +4374,7 @@
       <c r="D110" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="E110" s="24">
+      <c r="E110" s="15">
         <v>27849</v>
       </c>
       <c r="F110" s="3">
@@ -4355,12 +4386,12 @@
       <c r="H110" s="3">
         <v>8</v>
       </c>
-      <c r="I110" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A111" s="21">
+      <c r="I110" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="12">
         <v>88</v>
       </c>
       <c r="B111" s="5" t="s">
@@ -4384,12 +4415,12 @@
       <c r="H111" s="3">
         <v>7</v>
       </c>
-      <c r="I111" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A112" s="21">
+      <c r="I111" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="12">
         <v>89</v>
       </c>
       <c r="B112" s="5" t="s">
@@ -4413,25 +4444,25 @@
       <c r="H112" s="3">
         <v>8</v>
       </c>
-      <c r="I112" s="22">
+      <c r="I112" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A113" s="23" t="s">
+    <row r="113" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="B113" s="23"/>
-      <c r="C113" s="23"/>
-      <c r="D113" s="23"/>
-      <c r="E113" s="23"/>
-      <c r="F113" s="23"/>
-      <c r="G113" s="23"/>
-      <c r="H113" s="23"/>
-      <c r="I113" s="23"/>
-    </row>
-    <row r="114" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A114" s="21">
+      <c r="B113" s="19"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="19"/>
+      <c r="G113" s="19"/>
+      <c r="H113" s="19"/>
+      <c r="I113" s="19"/>
+    </row>
+    <row r="114" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="12">
         <v>90</v>
       </c>
       <c r="B114" s="5" t="s">
@@ -4443,7 +4474,7 @@
       <c r="D114" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="E114" s="24">
+      <c r="E114" s="15">
         <v>39429</v>
       </c>
       <c r="F114" s="3">
@@ -4455,12 +4486,12 @@
       <c r="H114" s="3">
         <v>7</v>
       </c>
-      <c r="I114" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A115" s="21">
+      <c r="I114" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="12">
         <v>91</v>
       </c>
       <c r="B115" s="5" t="s">
@@ -4472,7 +4503,7 @@
       <c r="D115" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="E115" s="24">
+      <c r="E115" s="15">
         <v>38106</v>
       </c>
       <c r="F115" s="3">
@@ -4484,12 +4515,12 @@
       <c r="H115" s="3">
         <v>7</v>
       </c>
-      <c r="I115" s="22">
+      <c r="I115" s="13">
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A116" s="21">
+    <row r="116" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="12">
         <v>92</v>
       </c>
       <c r="B116" s="5" t="s">
@@ -4501,7 +4532,7 @@
       <c r="D116" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E116" s="24">
+      <c r="E116" s="15">
         <v>41780</v>
       </c>
       <c r="F116" s="3">
@@ -4513,12 +4544,12 @@
       <c r="H116" s="3">
         <v>8</v>
       </c>
-      <c r="I116" s="22">
+      <c r="I116" s="13">
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A117" s="21">
+    <row r="117" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="12">
         <v>93</v>
       </c>
       <c r="B117" s="5" t="s">
@@ -4530,7 +4561,7 @@
       <c r="D117" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="E117" s="24">
+      <c r="E117" s="15">
         <v>27885</v>
       </c>
       <c r="F117" s="3">
@@ -4542,12 +4573,12 @@
       <c r="H117" s="3">
         <v>8</v>
       </c>
-      <c r="I117" s="22">
+      <c r="I117" s="13">
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A118" s="21">
+    <row r="118" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="12">
         <v>94</v>
       </c>
       <c r="B118" s="5" t="s">
@@ -4559,7 +4590,7 @@
       <c r="D118" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="E118" s="24">
+      <c r="E118" s="15">
         <v>26736</v>
       </c>
       <c r="F118" s="3">
@@ -4571,12 +4602,12 @@
       <c r="H118" s="3">
         <v>6</v>
       </c>
-      <c r="I118" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A119" s="21">
+      <c r="I118" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="12">
         <v>95</v>
       </c>
       <c r="B119" s="5" t="s">
@@ -4588,7 +4619,7 @@
       <c r="D119" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="E119" s="24">
+      <c r="E119" s="15">
         <v>26736</v>
       </c>
       <c r="F119" s="3">
@@ -4600,12 +4631,12 @@
       <c r="H119" s="3">
         <v>6</v>
       </c>
-      <c r="I119" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A120" s="21">
+      <c r="I119" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="12">
         <v>96</v>
       </c>
       <c r="B120" s="5" t="s">
@@ -4617,7 +4648,7 @@
       <c r="D120" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="E120" s="24">
+      <c r="E120" s="15">
         <v>26736</v>
       </c>
       <c r="F120" s="3">
@@ -4629,25 +4660,25 @@
       <c r="H120" s="3">
         <v>6</v>
       </c>
-      <c r="I120" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A121" s="23" t="s">
+      <c r="I120" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="B121" s="23"/>
-      <c r="C121" s="23"/>
-      <c r="D121" s="23"/>
-      <c r="E121" s="23"/>
-      <c r="F121" s="23"/>
-      <c r="G121" s="23"/>
-      <c r="H121" s="23"/>
-      <c r="I121" s="23"/>
-    </row>
-    <row r="122" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A122" s="21">
+      <c r="B121" s="19"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="19"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="19"/>
+      <c r="G121" s="19"/>
+      <c r="H121" s="19"/>
+      <c r="I121" s="19"/>
+    </row>
+    <row r="122" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="12">
         <v>97</v>
       </c>
       <c r="B122" s="5" t="s">
@@ -4659,7 +4690,7 @@
       <c r="D122" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="E122" s="24">
+      <c r="E122" s="15">
         <v>26736</v>
       </c>
       <c r="F122" s="3">
@@ -4671,12 +4702,12 @@
       <c r="H122" s="3">
         <v>6</v>
       </c>
-      <c r="I122" s="22">
+      <c r="I122" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A123" s="21">
+    <row r="123" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="12">
         <v>98</v>
       </c>
       <c r="B123" s="5" t="s">
@@ -4688,7 +4719,7 @@
       <c r="D123" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="E123" s="24">
+      <c r="E123" s="15">
         <v>26736</v>
       </c>
       <c r="F123" s="3">
@@ -4700,12 +4731,12 @@
       <c r="H123" s="3">
         <v>6</v>
       </c>
-      <c r="I123" s="22">
+      <c r="I123" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A124" s="21">
+    <row r="124" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="12">
         <v>99</v>
       </c>
       <c r="B124" s="5" t="s">
@@ -4717,7 +4748,7 @@
       <c r="D124" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="E124" s="24">
+      <c r="E124" s="15">
         <v>26736</v>
       </c>
       <c r="F124" s="3">
@@ -4729,12 +4760,12 @@
       <c r="H124" s="3">
         <v>6</v>
       </c>
-      <c r="I124" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A125" s="21">
+      <c r="I124" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="12">
         <v>100</v>
       </c>
       <c r="B125" s="5" t="s">
@@ -4746,7 +4777,7 @@
       <c r="D125" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="E125" s="24">
+      <c r="E125" s="15">
         <v>26736</v>
       </c>
       <c r="F125" s="3">
@@ -4758,25 +4789,25 @@
       <c r="H125" s="3">
         <v>6</v>
       </c>
-      <c r="I125" s="22">
+      <c r="I125" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A126" s="23" t="s">
+    <row r="126" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="B126" s="23"/>
-      <c r="C126" s="23"/>
-      <c r="D126" s="23"/>
-      <c r="E126" s="23"/>
-      <c r="F126" s="23"/>
-      <c r="G126" s="23"/>
-      <c r="H126" s="23"/>
-      <c r="I126" s="23"/>
-    </row>
-    <row r="127" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A127" s="21">
+      <c r="B126" s="19"/>
+      <c r="C126" s="19"/>
+      <c r="D126" s="19"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="19"/>
+      <c r="G126" s="19"/>
+      <c r="H126" s="19"/>
+      <c r="I126" s="19"/>
+    </row>
+    <row r="127" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="12">
         <v>101</v>
       </c>
       <c r="B127" s="5" t="s">
@@ -4788,7 +4819,7 @@
       <c r="D127" s="3">
         <v>40</v>
       </c>
-      <c r="E127" s="24">
+      <c r="E127" s="15">
         <v>39429</v>
       </c>
       <c r="F127" s="3">
@@ -4800,12 +4831,12 @@
       <c r="H127" s="3">
         <v>7</v>
       </c>
-      <c r="I127" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A128" s="21">
+      <c r="I127" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="12">
         <v>102</v>
       </c>
       <c r="B128" s="5" t="s">
@@ -4829,12 +4860,12 @@
       <c r="H128" s="3">
         <v>8</v>
       </c>
-      <c r="I128" s="22">
+      <c r="I128" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A129" s="21">
+    <row r="129" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="12">
         <v>103</v>
       </c>
       <c r="B129" s="5" t="s">
@@ -4846,7 +4877,7 @@
       <c r="D129" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E129" s="24">
+      <c r="E129" s="15">
         <v>26697</v>
       </c>
       <c r="F129" s="3">
@@ -4858,25 +4889,25 @@
       <c r="H129" s="3">
         <v>8</v>
       </c>
-      <c r="I129" s="22">
+      <c r="I129" s="13">
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A130" s="23" t="s">
+    <row r="130" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="B130" s="23"/>
-      <c r="C130" s="23"/>
-      <c r="D130" s="23"/>
-      <c r="E130" s="23"/>
-      <c r="F130" s="23"/>
-      <c r="G130" s="23"/>
-      <c r="H130" s="23"/>
-      <c r="I130" s="23"/>
-    </row>
-    <row r="131" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A131" s="21">
+      <c r="B130" s="19"/>
+      <c r="C130" s="19"/>
+      <c r="D130" s="19"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="19"/>
+      <c r="G130" s="19"/>
+      <c r="H130" s="19"/>
+      <c r="I130" s="19"/>
+    </row>
+    <row r="131" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="12">
         <v>104</v>
       </c>
       <c r="B131" s="5" t="s">
@@ -4888,7 +4919,7 @@
       <c r="D131" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E131" s="24">
+      <c r="E131" s="15">
         <v>26613</v>
       </c>
       <c r="F131" s="3">
@@ -4900,12 +4931,12 @@
       <c r="H131" s="3">
         <v>8</v>
       </c>
-      <c r="I131" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A132" s="21">
+      <c r="I131" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="12">
         <v>105</v>
       </c>
       <c r="B132" s="5" t="s">
@@ -4917,7 +4948,7 @@
       <c r="D132" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E132" s="24">
+      <c r="E132" s="15">
         <v>26613</v>
       </c>
       <c r="F132" s="3">
@@ -4929,12 +4960,12 @@
       <c r="H132" s="3">
         <v>8</v>
       </c>
-      <c r="I132" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A133" s="21">
+      <c r="I132" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="12">
         <v>106</v>
       </c>
       <c r="B133" s="5" t="s">
@@ -4946,7 +4977,7 @@
       <c r="D133" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E133" s="24">
+      <c r="E133" s="15">
         <v>26613</v>
       </c>
       <c r="F133" s="3">
@@ -4958,12 +4989,12 @@
       <c r="H133" s="3">
         <v>8</v>
       </c>
-      <c r="I133" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A134" s="21">
+      <c r="I133" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="12">
         <v>107</v>
       </c>
       <c r="B134" s="5" t="s">
@@ -4975,7 +5006,7 @@
       <c r="D134" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="E134" s="24">
+      <c r="E134" s="15">
         <v>27499</v>
       </c>
       <c r="F134" s="3">
@@ -4987,12 +5018,12 @@
       <c r="H134" s="3">
         <v>6</v>
       </c>
-      <c r="I134" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A135" s="21">
+      <c r="I134" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="12">
         <v>108</v>
       </c>
       <c r="B135" s="5" t="s">
@@ -5016,12 +5047,12 @@
       <c r="H135" s="3">
         <v>6</v>
       </c>
-      <c r="I135" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A136" s="21">
+      <c r="I135" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="12">
         <v>109</v>
       </c>
       <c r="B136" s="5" t="s">
@@ -5033,7 +5064,7 @@
       <c r="D136" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="E136" s="24">
+      <c r="E136" s="15">
         <v>27499</v>
       </c>
       <c r="F136" s="3">
@@ -5045,12 +5076,12 @@
       <c r="H136" s="3">
         <v>6</v>
       </c>
-      <c r="I136" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A137" s="21">
+      <c r="I136" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="12">
         <v>110</v>
       </c>
       <c r="B137" s="5" t="s">
@@ -5062,7 +5093,7 @@
       <c r="D137" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E137" s="24">
+      <c r="E137" s="15">
         <v>26613</v>
       </c>
       <c r="F137" s="3">
@@ -5074,12 +5105,12 @@
       <c r="H137" s="3">
         <v>6</v>
       </c>
-      <c r="I137" s="22">
+      <c r="I137" s="13">
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A138" s="21">
+    <row r="138" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="12">
         <v>111</v>
       </c>
       <c r="B138" s="5" t="s">
@@ -5091,7 +5122,7 @@
       <c r="D138" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E138" s="24">
+      <c r="E138" s="15">
         <v>26613</v>
       </c>
       <c r="F138" s="3">
@@ -5103,12 +5134,12 @@
       <c r="H138" s="3">
         <v>7</v>
       </c>
-      <c r="I138" s="22">
+      <c r="I138" s="13">
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A139" s="21">
+    <row r="139" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="12">
         <v>112</v>
       </c>
       <c r="B139" s="5" t="s">
@@ -5120,7 +5151,7 @@
       <c r="D139" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E139" s="24">
+      <c r="E139" s="15">
         <v>26612</v>
       </c>
       <c r="F139" s="3">
@@ -5132,12 +5163,12 @@
       <c r="H139" s="3">
         <v>8</v>
       </c>
-      <c r="I139" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A140" s="21">
+      <c r="I139" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="12">
         <v>113</v>
       </c>
       <c r="B140" s="5" t="s">
@@ -5149,7 +5180,7 @@
       <c r="D140" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="E140" s="24">
+      <c r="E140" s="15">
         <v>36984</v>
       </c>
       <c r="F140" s="3">
@@ -5161,12 +5192,12 @@
       <c r="H140" s="3">
         <v>7</v>
       </c>
-      <c r="I140" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A141" s="21">
+      <c r="I140" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="12">
         <v>114</v>
       </c>
       <c r="B141" s="5" t="s">
@@ -5178,7 +5209,7 @@
       <c r="D141" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="E141" s="24">
+      <c r="E141" s="15">
         <v>36984</v>
       </c>
       <c r="F141" s="3">
@@ -5190,25 +5221,25 @@
       <c r="H141" s="3">
         <v>8</v>
       </c>
-      <c r="I141" s="22">
+      <c r="I141" s="13">
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A142" s="23" t="s">
+    <row r="142" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="B142" s="23"/>
-      <c r="C142" s="23"/>
-      <c r="D142" s="23"/>
-      <c r="E142" s="23"/>
-      <c r="F142" s="23"/>
-      <c r="G142" s="23"/>
-      <c r="H142" s="23"/>
-      <c r="I142" s="23"/>
-    </row>
-    <row r="143" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A143" s="21">
+      <c r="B142" s="19"/>
+      <c r="C142" s="19"/>
+      <c r="D142" s="19"/>
+      <c r="E142" s="19"/>
+      <c r="F142" s="19"/>
+      <c r="G142" s="19"/>
+      <c r="H142" s="19"/>
+      <c r="I142" s="19"/>
+    </row>
+    <row r="143" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="12">
         <v>115</v>
       </c>
       <c r="B143" s="5" t="s">
@@ -5220,7 +5251,7 @@
       <c r="D143" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="E143" s="24">
+      <c r="E143" s="15">
         <v>26568</v>
       </c>
       <c r="F143" s="3">
@@ -5232,12 +5263,12 @@
       <c r="H143" s="3">
         <v>8</v>
       </c>
-      <c r="I143" s="22">
+      <c r="I143" s="13">
         <v>16</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A144" s="21">
+    <row r="144" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="12">
         <v>116</v>
       </c>
       <c r="B144" s="5" t="s">
@@ -5249,7 +5280,7 @@
       <c r="D144" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="E144" s="24">
+      <c r="E144" s="15">
         <v>26568</v>
       </c>
       <c r="F144" s="3">
@@ -5261,12 +5292,12 @@
       <c r="H144" s="3">
         <v>6</v>
       </c>
-      <c r="I144" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A145" s="21">
+      <c r="I144" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="12">
         <v>117</v>
       </c>
       <c r="B145" s="5" t="s">
@@ -5278,7 +5309,7 @@
       <c r="D145" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="E145" s="24">
+      <c r="E145" s="15">
         <v>26568</v>
       </c>
       <c r="F145" s="3">
@@ -5290,12 +5321,12 @@
       <c r="H145" s="3">
         <v>6</v>
       </c>
-      <c r="I145" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A146" s="21">
+      <c r="I145" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="12">
         <v>118</v>
       </c>
       <c r="B146" s="5" t="s">
@@ -5307,7 +5338,7 @@
       <c r="D146" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="E146" s="24">
+      <c r="E146" s="15">
         <v>26568</v>
       </c>
       <c r="F146" s="3">
@@ -5319,12 +5350,12 @@
       <c r="H146" s="3">
         <v>6</v>
       </c>
-      <c r="I146" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A147" s="21">
+      <c r="I146" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="12">
         <v>119</v>
       </c>
       <c r="B147" s="5" t="s">
@@ -5336,7 +5367,7 @@
       <c r="D147" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="E147" s="24">
+      <c r="E147" s="15">
         <v>26568</v>
       </c>
       <c r="F147" s="3">
@@ -5348,12 +5379,12 @@
       <c r="H147" s="3">
         <v>6</v>
       </c>
-      <c r="I147" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A148" s="21">
+      <c r="I147" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="12">
         <v>120</v>
       </c>
       <c r="B148" s="5" t="s">
@@ -5365,7 +5396,7 @@
       <c r="D148" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="E148" s="24">
+      <c r="E148" s="15">
         <v>26568</v>
       </c>
       <c r="F148" s="3">
@@ -5377,12 +5408,12 @@
       <c r="H148" s="3">
         <v>7</v>
       </c>
-      <c r="I148" s="22">
+      <c r="I148" s="13">
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A149" s="21">
+    <row r="149" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="12">
         <v>121</v>
       </c>
       <c r="B149" s="5" t="s">
@@ -5394,7 +5425,7 @@
       <c r="D149" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="E149" s="24">
+      <c r="E149" s="15">
         <v>26568</v>
       </c>
       <c r="F149" s="3">
@@ -5406,12 +5437,12 @@
       <c r="H149" s="3">
         <v>8</v>
       </c>
-      <c r="I149" s="22">
+      <c r="I149" s="13">
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A150" s="21">
+    <row r="150" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="12">
         <v>122</v>
       </c>
       <c r="B150" s="5" t="s">
@@ -5423,7 +5454,7 @@
       <c r="D150" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="E150" s="24">
+      <c r="E150" s="15">
         <v>26568</v>
       </c>
       <c r="F150" s="3">
@@ -5435,12 +5466,12 @@
       <c r="H150" s="3">
         <v>6</v>
       </c>
-      <c r="I150" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A151" s="21">
+      <c r="I150" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="12">
         <v>123</v>
       </c>
       <c r="B151" s="5" t="s">
@@ -5452,7 +5483,7 @@
       <c r="D151" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="E151" s="24">
+      <c r="E151" s="15">
         <v>39428</v>
       </c>
       <c r="F151" s="3">
@@ -5464,12 +5495,12 @@
       <c r="H151" s="3">
         <v>6</v>
       </c>
-      <c r="I151" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A152" s="21">
+      <c r="I151" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="12">
         <v>124</v>
       </c>
       <c r="B152" s="5" t="s">
@@ -5481,7 +5512,7 @@
       <c r="D152" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="E152" s="24">
+      <c r="E152" s="15">
         <v>26568</v>
       </c>
       <c r="F152" s="3">
@@ -5493,12 +5524,12 @@
       <c r="H152" s="3">
         <v>6</v>
       </c>
-      <c r="I152" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A153" s="21">
+      <c r="I152" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="12">
         <v>125</v>
       </c>
       <c r="B153" s="5" t="s">
@@ -5510,7 +5541,7 @@
       <c r="D153" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="E153" s="24">
+      <c r="E153" s="15">
         <v>26568</v>
       </c>
       <c r="F153" s="3">
@@ -5522,12 +5553,12 @@
       <c r="H153" s="3">
         <v>6</v>
       </c>
-      <c r="I153" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A154" s="21">
+      <c r="I153" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="12">
         <v>126</v>
       </c>
       <c r="B154" s="5" t="s">
@@ -5539,7 +5570,7 @@
       <c r="D154" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="E154" s="24">
+      <c r="E154" s="15">
         <v>39428</v>
       </c>
       <c r="F154" s="3">
@@ -5551,12 +5582,12 @@
       <c r="H154" s="3">
         <v>7</v>
       </c>
-      <c r="I154" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A155" s="21">
+      <c r="I154" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="12">
         <v>127</v>
       </c>
       <c r="B155" s="5" t="s">
@@ -5568,7 +5599,7 @@
       <c r="D155" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="E155" s="24">
+      <c r="E155" s="15">
         <v>31940</v>
       </c>
       <c r="F155" s="3">
@@ -5580,12 +5611,12 @@
       <c r="H155" s="3">
         <v>6</v>
       </c>
-      <c r="I155" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A156" s="21">
+      <c r="I155" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="12">
         <v>128</v>
       </c>
       <c r="B156" s="5" t="s">
@@ -5597,7 +5628,7 @@
       <c r="D156" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E156" s="24">
+      <c r="E156" s="15">
         <v>31940</v>
       </c>
       <c r="F156" s="3">
@@ -5609,12 +5640,12 @@
       <c r="H156" s="3">
         <v>6</v>
       </c>
-      <c r="I156" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A157" s="21">
+      <c r="I156" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="12">
         <v>129</v>
       </c>
       <c r="B157" s="5" t="s">
@@ -5638,12 +5669,12 @@
       <c r="H157" s="3">
         <v>6</v>
       </c>
-      <c r="I157" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A158" s="21">
+      <c r="I157" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="12">
         <v>130</v>
       </c>
       <c r="B158" s="5" t="s">
@@ -5667,25 +5698,25 @@
       <c r="H158" s="3">
         <v>9</v>
       </c>
-      <c r="I158" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A159" s="23" t="s">
+      <c r="I158" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="B159" s="23"/>
-      <c r="C159" s="23"/>
-      <c r="D159" s="23"/>
-      <c r="E159" s="23"/>
-      <c r="F159" s="23"/>
-      <c r="G159" s="23"/>
-      <c r="H159" s="23"/>
-      <c r="I159" s="23"/>
-    </row>
-    <row r="160" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A160" s="21">
+      <c r="B159" s="19"/>
+      <c r="C159" s="19"/>
+      <c r="D159" s="19"/>
+      <c r="E159" s="19"/>
+      <c r="F159" s="19"/>
+      <c r="G159" s="19"/>
+      <c r="H159" s="19"/>
+      <c r="I159" s="19"/>
+    </row>
+    <row r="160" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="12">
         <v>131</v>
       </c>
       <c r="B160" s="5" t="s">
@@ -5697,7 +5728,7 @@
       <c r="D160" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="E160" s="24">
+      <c r="E160" s="15">
         <v>27201</v>
       </c>
       <c r="F160" s="3">
@@ -5709,12 +5740,12 @@
       <c r="H160" s="3">
         <v>10</v>
       </c>
-      <c r="I160" s="22">
+      <c r="I160" s="13">
         <v>16</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A161" s="21">
+    <row r="161" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="12">
         <v>132</v>
       </c>
       <c r="B161" s="5" t="s">
@@ -5726,7 +5757,7 @@
       <c r="D161" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="E161" s="24">
+      <c r="E161" s="15">
         <v>27201</v>
       </c>
       <c r="F161" s="3">
@@ -5738,12 +5769,12 @@
       <c r="H161" s="3">
         <v>10</v>
       </c>
-      <c r="I161" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A162" s="21">
+      <c r="I161" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="12">
         <v>133</v>
       </c>
       <c r="B162" s="5" t="s">
@@ -5755,7 +5786,7 @@
       <c r="D162" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="E162" s="24">
+      <c r="E162" s="15">
         <v>27201</v>
       </c>
       <c r="F162" s="3">
@@ -5767,25 +5798,25 @@
       <c r="H162" s="3">
         <v>7</v>
       </c>
-      <c r="I162" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A163" s="23" t="s">
+      <c r="I162" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="B163" s="23"/>
-      <c r="C163" s="23"/>
-      <c r="D163" s="23"/>
-      <c r="E163" s="23"/>
-      <c r="F163" s="23"/>
-      <c r="G163" s="23"/>
-      <c r="H163" s="23"/>
-      <c r="I163" s="23"/>
-    </row>
-    <row r="164" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A164" s="21">
+      <c r="B163" s="19"/>
+      <c r="C163" s="19"/>
+      <c r="D163" s="19"/>
+      <c r="E163" s="19"/>
+      <c r="F163" s="19"/>
+      <c r="G163" s="19"/>
+      <c r="H163" s="19"/>
+      <c r="I163" s="19"/>
+    </row>
+    <row r="164" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="12">
         <v>134</v>
       </c>
       <c r="B164" s="5" t="s">
@@ -5797,7 +5828,7 @@
       <c r="D164" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="E164" s="24">
+      <c r="E164" s="15">
         <v>35089</v>
       </c>
       <c r="F164" s="3">
@@ -5809,25 +5840,25 @@
       <c r="H164" s="3">
         <v>6</v>
       </c>
-      <c r="I164" s="22">
+      <c r="I164" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A165" s="23" t="s">
+    <row r="165" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="B165" s="23"/>
-      <c r="C165" s="23"/>
-      <c r="D165" s="23"/>
-      <c r="E165" s="23"/>
-      <c r="F165" s="23"/>
-      <c r="G165" s="23"/>
-      <c r="H165" s="23"/>
-      <c r="I165" s="23"/>
-    </row>
-    <row r="166" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A166" s="21">
+      <c r="B165" s="19"/>
+      <c r="C165" s="19"/>
+      <c r="D165" s="19"/>
+      <c r="E165" s="19"/>
+      <c r="F165" s="19"/>
+      <c r="G165" s="19"/>
+      <c r="H165" s="19"/>
+      <c r="I165" s="19"/>
+    </row>
+    <row r="166" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="12">
         <v>135</v>
       </c>
       <c r="B166" s="5" t="s">
@@ -5839,7 +5870,7 @@
       <c r="D166" s="3">
         <v>40</v>
       </c>
-      <c r="E166" s="24">
+      <c r="E166" s="15">
         <v>39429</v>
       </c>
       <c r="F166" s="3">
@@ -5851,12 +5882,12 @@
       <c r="H166" s="3">
         <v>8</v>
       </c>
-      <c r="I166" s="22">
+      <c r="I166" s="13">
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A167" s="21">
+    <row r="167" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="12">
         <v>136</v>
       </c>
       <c r="B167" s="5" t="s">
@@ -5868,7 +5899,7 @@
       <c r="D167" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="E167" s="24">
+      <c r="E167" s="15">
         <v>26736</v>
       </c>
       <c r="F167" s="3">
@@ -5880,12 +5911,12 @@
       <c r="H167" s="3">
         <v>6</v>
       </c>
-      <c r="I167" s="22">
+      <c r="I167" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A168" s="21">
+    <row r="168" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="12">
         <v>137</v>
       </c>
       <c r="B168" s="5" t="s">
@@ -5897,7 +5928,7 @@
       <c r="D168" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="E168" s="24">
+      <c r="E168" s="15">
         <v>26736</v>
       </c>
       <c r="F168" s="3">
@@ -5909,12 +5940,12 @@
       <c r="H168" s="3">
         <v>6</v>
       </c>
-      <c r="I168" s="22">
+      <c r="I168" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A169" s="21">
+    <row r="169" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="12">
         <v>138</v>
       </c>
       <c r="B169" s="5" t="s">
@@ -5938,25 +5969,25 @@
       <c r="H169" s="3">
         <v>8</v>
       </c>
-      <c r="I169" s="22">
+      <c r="I169" s="13">
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A170" s="23" t="s">
+    <row r="170" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="B170" s="23"/>
-      <c r="C170" s="23"/>
-      <c r="D170" s="23"/>
-      <c r="E170" s="23"/>
-      <c r="F170" s="23"/>
-      <c r="G170" s="23"/>
-      <c r="H170" s="23"/>
-      <c r="I170" s="23"/>
-    </row>
-    <row r="171" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A171" s="21">
+      <c r="B170" s="19"/>
+      <c r="C170" s="19"/>
+      <c r="D170" s="19"/>
+      <c r="E170" s="19"/>
+      <c r="F170" s="19"/>
+      <c r="G170" s="19"/>
+      <c r="H170" s="19"/>
+      <c r="I170" s="19"/>
+    </row>
+    <row r="171" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="12">
         <v>139</v>
       </c>
       <c r="B171" s="5" t="s">
@@ -5968,7 +5999,7 @@
       <c r="D171" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E171" s="24">
+      <c r="E171" s="15">
         <v>28409</v>
       </c>
       <c r="F171" s="3">
@@ -5980,67 +6011,41 @@
       <c r="H171" s="3">
         <v>6</v>
       </c>
-      <c r="I171" s="22">
+      <c r="I171" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
-      <c r="A172" s="26" t="str">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A172" s="17" t="str">
         <f>[1]Fontes!A13</f>
         <v>Fonte: SIGRA</v>
       </c>
-      <c r="B172" s="26"/>
-    </row>
-    <row r="173" spans="1:9">
-      <c r="A173" s="27" t="s">
+      <c r="B172" s="17"/>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A173" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="B173" s="27"/>
-    </row>
-    <row r="174" spans="1:9">
-      <c r="A174" s="27" t="s">
+      <c r="B173" s="18"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A174" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="B174" s="27"/>
-      <c r="C174" s="27"/>
-      <c r="D174" s="27"/>
-      <c r="E174" s="27"/>
-      <c r="F174" s="27"/>
-      <c r="G174" s="27"/>
-      <c r="H174" s="27"/>
-      <c r="I174" s="27"/>
-    </row>
-    <row r="179" spans="7:7">
-      <c r="G179" s="28"/>
+      <c r="B174" s="18"/>
+      <c r="C174" s="18"/>
+      <c r="D174" s="18"/>
+      <c r="E174" s="18"/>
+      <c r="F174" s="18"/>
+      <c r="G174" s="18"/>
+      <c r="H174" s="18"/>
+      <c r="I174" s="18"/>
+    </row>
+    <row r="179" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G179" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="A174:I174"/>
-    <mergeCell ref="A130:I130"/>
-    <mergeCell ref="A142:I142"/>
-    <mergeCell ref="A159:I159"/>
-    <mergeCell ref="A163:I163"/>
-    <mergeCell ref="A165:I165"/>
-    <mergeCell ref="A170:I170"/>
-    <mergeCell ref="A81:I81"/>
-    <mergeCell ref="A87:I87"/>
-    <mergeCell ref="A92:I92"/>
-    <mergeCell ref="A113:I113"/>
-    <mergeCell ref="A121:I121"/>
-    <mergeCell ref="A126:I126"/>
-    <mergeCell ref="A45:I45"/>
-    <mergeCell ref="A49:I49"/>
-    <mergeCell ref="A56:I56"/>
-    <mergeCell ref="A58:I58"/>
-    <mergeCell ref="A66:I66"/>
-    <mergeCell ref="A75:I75"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="A38:I38"/>
     <mergeCell ref="A41:I41"/>
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="H3:I3"/>
@@ -6054,7 +6059,4455 @@
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="E3:E5"/>
     <mergeCell ref="F3:F5"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="A126:I126"/>
+    <mergeCell ref="A45:I45"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="A56:I56"/>
+    <mergeCell ref="A58:I58"/>
+    <mergeCell ref="A66:I66"/>
+    <mergeCell ref="A75:I75"/>
+    <mergeCell ref="A81:I81"/>
+    <mergeCell ref="A87:I87"/>
+    <mergeCell ref="A92:I92"/>
+    <mergeCell ref="A113:I113"/>
+    <mergeCell ref="A121:I121"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="A174:I174"/>
+    <mergeCell ref="A130:I130"/>
+    <mergeCell ref="A142:I142"/>
+    <mergeCell ref="A159:I159"/>
+    <mergeCell ref="A163:I163"/>
+    <mergeCell ref="A165:I165"/>
+    <mergeCell ref="A170:I170"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O172"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.5546875" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.109375" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="O2" s="11"/>
+    </row>
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2640</v>
+      </c>
+      <c r="G3" s="3">
+        <v>176</v>
+      </c>
+      <c r="H3" s="3">
+        <v>8</v>
+      </c>
+      <c r="I3" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E5" s="15">
+        <v>42110</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2790</v>
+      </c>
+      <c r="G5" s="3">
+        <v>186</v>
+      </c>
+      <c r="H5" s="3">
+        <v>8</v>
+      </c>
+      <c r="I5" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6" s="15">
+        <v>26612</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2820</v>
+      </c>
+      <c r="G6" s="3">
+        <v>188</v>
+      </c>
+      <c r="H6" s="3">
+        <v>8</v>
+      </c>
+      <c r="I6" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" s="15">
+        <v>26612</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2325</v>
+      </c>
+      <c r="G7" s="3">
+        <v>155</v>
+      </c>
+      <c r="H7" s="3">
+        <v>6</v>
+      </c>
+      <c r="I7" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" s="15">
+        <v>26612</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2790</v>
+      </c>
+      <c r="G8" s="3">
+        <v>186</v>
+      </c>
+      <c r="H8" s="3">
+        <v>8</v>
+      </c>
+      <c r="I8" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="12">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E10" s="15">
+        <v>25384</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G10" s="3">
+        <v>200</v>
+      </c>
+      <c r="H10" s="3">
+        <v>8</v>
+      </c>
+      <c r="I10" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G11" s="3">
+        <v>200</v>
+      </c>
+      <c r="H11" s="3">
+        <v>8</v>
+      </c>
+      <c r="I11" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E12" s="15">
+        <v>29347</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G12" s="3">
+        <v>200</v>
+      </c>
+      <c r="H12" s="3">
+        <v>8</v>
+      </c>
+      <c r="I12" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="12">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E13" s="15">
+        <v>29347</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G13" s="3">
+        <v>200</v>
+      </c>
+      <c r="H13" s="3">
+        <v>10</v>
+      </c>
+      <c r="I13" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="12">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E14" s="15">
+        <v>25384</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G14" s="3">
+        <v>200</v>
+      </c>
+      <c r="H14" s="3">
+        <v>6</v>
+      </c>
+      <c r="I14" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="12">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G15" s="3">
+        <v>200</v>
+      </c>
+      <c r="H15" s="3">
+        <v>8</v>
+      </c>
+      <c r="I15" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="12">
+        <v>12</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E17" s="15">
+        <v>24597</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3750</v>
+      </c>
+      <c r="G17" s="3">
+        <v>250</v>
+      </c>
+      <c r="H17" s="3">
+        <v>9</v>
+      </c>
+      <c r="I17" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="12">
+        <v>13</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E18" s="15">
+        <v>24597</v>
+      </c>
+      <c r="F18" s="3">
+        <v>3750</v>
+      </c>
+      <c r="G18" s="3">
+        <v>250</v>
+      </c>
+      <c r="H18" s="3">
+        <v>9</v>
+      </c>
+      <c r="I18" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="12">
+        <v>14</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E20" s="15">
+        <v>27849</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3930</v>
+      </c>
+      <c r="G20" s="3">
+        <v>262</v>
+      </c>
+      <c r="H20" s="3">
+        <v>8</v>
+      </c>
+      <c r="I20" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="12">
+        <v>15</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G21" s="3">
+        <v>200</v>
+      </c>
+      <c r="H21" s="3">
+        <v>8</v>
+      </c>
+      <c r="I21" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="12">
+        <v>16</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E22" s="15">
+        <v>37464</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G22" s="3">
+        <v>280</v>
+      </c>
+      <c r="H22" s="3">
+        <v>10</v>
+      </c>
+      <c r="I22" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="12">
+        <v>17</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F24" s="3">
+        <v>4230</v>
+      </c>
+      <c r="G24" s="3">
+        <v>282</v>
+      </c>
+      <c r="H24" s="3">
+        <v>10</v>
+      </c>
+      <c r="I24" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="12">
+        <v>18</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E25" s="15">
+        <v>40917</v>
+      </c>
+      <c r="F25" s="3">
+        <v>4395</v>
+      </c>
+      <c r="G25" s="3">
+        <v>293</v>
+      </c>
+      <c r="H25" s="3">
+        <v>10</v>
+      </c>
+      <c r="I25" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="12">
+        <v>19</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>4050</v>
+      </c>
+      <c r="G26" s="3">
+        <v>300</v>
+      </c>
+      <c r="H26" s="3">
+        <v>10</v>
+      </c>
+      <c r="I26" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="12">
+        <v>20</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>3510</v>
+      </c>
+      <c r="G27" s="3">
+        <v>234</v>
+      </c>
+      <c r="H27" s="3">
+        <v>8</v>
+      </c>
+      <c r="I27" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="12">
+        <v>21</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E28" s="15">
+        <v>39429</v>
+      </c>
+      <c r="F28" s="3">
+        <v>3210</v>
+      </c>
+      <c r="G28" s="3">
+        <v>214</v>
+      </c>
+      <c r="H28" s="3">
+        <v>8</v>
+      </c>
+      <c r="I28" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="12">
+        <v>22</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E29" s="15">
+        <v>42110</v>
+      </c>
+      <c r="F29" s="3">
+        <v>3510</v>
+      </c>
+      <c r="G29" s="3">
+        <v>234</v>
+      </c>
+      <c r="H29" s="3">
+        <v>8</v>
+      </c>
+      <c r="I29" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+    </row>
+    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="12">
+        <v>23</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E31" s="15">
+        <v>34981</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G31" s="3">
+        <v>160</v>
+      </c>
+      <c r="H31" s="3">
+        <v>6</v>
+      </c>
+      <c r="I31" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="12">
+        <v>24</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E32" s="15">
+        <v>26612</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G32" s="3">
+        <v>180</v>
+      </c>
+      <c r="H32" s="3">
+        <v>8</v>
+      </c>
+      <c r="I32" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="12">
+        <v>25</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>2535</v>
+      </c>
+      <c r="G33" s="3">
+        <v>169</v>
+      </c>
+      <c r="H33" s="3">
+        <v>7</v>
+      </c>
+      <c r="I33" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+    </row>
+    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="12">
+        <v>26</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E35" s="15">
+        <v>25384</v>
+      </c>
+      <c r="F35" s="3">
+        <v>3840</v>
+      </c>
+      <c r="G35" s="3">
+        <v>256</v>
+      </c>
+      <c r="H35" s="3">
+        <v>10</v>
+      </c>
+      <c r="I35" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="12">
+        <v>27</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E36" s="15">
+        <v>25384</v>
+      </c>
+      <c r="F36" s="3">
+        <v>3840</v>
+      </c>
+      <c r="G36" s="3">
+        <v>256</v>
+      </c>
+      <c r="H36" s="3">
+        <v>10</v>
+      </c>
+      <c r="I36" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+    </row>
+    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="12">
+        <v>28</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E38" s="15">
+        <v>41421</v>
+      </c>
+      <c r="F38" s="3">
+        <v>3240</v>
+      </c>
+      <c r="G38" s="3">
+        <v>216</v>
+      </c>
+      <c r="H38" s="3">
+        <v>10</v>
+      </c>
+      <c r="I38" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="12">
+        <v>29</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E39" s="15">
+        <v>26470</v>
+      </c>
+      <c r="F39" s="3">
+        <v>3210</v>
+      </c>
+      <c r="G39" s="3">
+        <v>214</v>
+      </c>
+      <c r="H39" s="3">
+        <v>6</v>
+      </c>
+      <c r="I39" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="12">
+        <v>30</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E40" s="15">
+        <v>26470</v>
+      </c>
+      <c r="F40" s="3">
+        <v>3210</v>
+      </c>
+      <c r="G40" s="3">
+        <v>214</v>
+      </c>
+      <c r="H40" s="3">
+        <v>6</v>
+      </c>
+      <c r="I40" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+    </row>
+    <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="12">
+        <v>31</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E42" s="15">
+        <v>39429</v>
+      </c>
+      <c r="F42" s="3">
+        <v>3210</v>
+      </c>
+      <c r="G42" s="3">
+        <v>214</v>
+      </c>
+      <c r="H42" s="3">
+        <v>8</v>
+      </c>
+      <c r="I42" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="12">
+        <v>32</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F43" s="3">
+        <v>2910</v>
+      </c>
+      <c r="G43" s="3">
+        <v>194</v>
+      </c>
+      <c r="H43" s="3">
+        <v>8</v>
+      </c>
+      <c r="I43" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="12">
+        <v>33</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E44" s="15">
+        <v>39804</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2820</v>
+      </c>
+      <c r="G44" s="3">
+        <v>188</v>
+      </c>
+      <c r="H44" s="3">
+        <v>6</v>
+      </c>
+      <c r="I44" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+    </row>
+    <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="12">
+        <v>34</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F46" s="3">
+        <v>3750</v>
+      </c>
+      <c r="G46" s="3">
+        <v>250</v>
+      </c>
+      <c r="H46" s="3">
+        <v>8</v>
+      </c>
+      <c r="I46" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="12">
+        <v>35</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E47" s="15">
+        <v>39429</v>
+      </c>
+      <c r="F47" s="3">
+        <v>3930</v>
+      </c>
+      <c r="G47" s="3">
+        <v>262</v>
+      </c>
+      <c r="H47" s="3">
+        <v>8</v>
+      </c>
+      <c r="I47" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="12">
+        <v>36</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E48" s="15">
+        <v>39429</v>
+      </c>
+      <c r="F48" s="3">
+        <v>3885</v>
+      </c>
+      <c r="G48" s="3">
+        <v>259</v>
+      </c>
+      <c r="H48" s="3">
+        <v>10</v>
+      </c>
+      <c r="I48" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="12">
+        <v>37</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E49" s="15">
+        <v>39429</v>
+      </c>
+      <c r="F49" s="3">
+        <v>3825</v>
+      </c>
+      <c r="G49" s="3">
+        <v>255</v>
+      </c>
+      <c r="H49" s="3">
+        <v>10</v>
+      </c>
+      <c r="I49" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="12">
+        <v>38</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E50" s="15">
+        <v>39429</v>
+      </c>
+      <c r="F50" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G50" s="3">
+        <v>240</v>
+      </c>
+      <c r="H50" s="3">
+        <v>10</v>
+      </c>
+      <c r="I50" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="12">
+        <v>39</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E51" s="15">
+        <v>39443</v>
+      </c>
+      <c r="F51" s="3">
+        <v>3855</v>
+      </c>
+      <c r="G51" s="3">
+        <v>257</v>
+      </c>
+      <c r="H51" s="3">
+        <v>10</v>
+      </c>
+      <c r="I51" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+    </row>
+    <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="12">
+        <v>40</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E53" s="15">
+        <v>26497</v>
+      </c>
+      <c r="F53" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G53" s="3">
+        <v>480</v>
+      </c>
+      <c r="H53" s="3">
+        <v>10</v>
+      </c>
+      <c r="I53" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+    </row>
+    <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="12">
+        <v>41</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E55" s="15">
+        <v>37784</v>
+      </c>
+      <c r="F55" s="3">
+        <v>4380</v>
+      </c>
+      <c r="G55" s="3">
+        <v>292</v>
+      </c>
+      <c r="H55" s="3">
+        <v>10</v>
+      </c>
+      <c r="I55" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="12">
+        <v>42</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E56" s="15">
+        <v>37784</v>
+      </c>
+      <c r="F56" s="3">
+        <v>4380</v>
+      </c>
+      <c r="G56" s="3">
+        <v>292</v>
+      </c>
+      <c r="H56" s="3">
+        <v>12</v>
+      </c>
+      <c r="I56" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="12">
+        <v>43</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E57" s="15">
+        <v>29487</v>
+      </c>
+      <c r="F57" s="3">
+        <v>4020</v>
+      </c>
+      <c r="G57" s="3">
+        <v>268</v>
+      </c>
+      <c r="H57" s="3">
+        <v>10</v>
+      </c>
+      <c r="I57" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="12">
+        <v>44</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E58" s="15">
+        <v>29487</v>
+      </c>
+      <c r="F58" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G58" s="3">
+        <v>280</v>
+      </c>
+      <c r="H58" s="3">
+        <v>8</v>
+      </c>
+      <c r="I58" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="12">
+        <v>45</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F59" s="3">
+        <v>3225</v>
+      </c>
+      <c r="G59" s="3">
+        <v>215</v>
+      </c>
+      <c r="H59" s="3">
+        <v>8</v>
+      </c>
+      <c r="I59" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="12">
+        <v>46</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E60" s="15">
+        <v>29642</v>
+      </c>
+      <c r="F60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G60" s="3">
+        <v>240</v>
+      </c>
+      <c r="H60" s="3">
+        <v>6</v>
+      </c>
+      <c r="I60" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="12">
+        <v>47</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E61" s="15">
+        <v>31119</v>
+      </c>
+      <c r="F61" s="3">
+        <v>4005</v>
+      </c>
+      <c r="G61" s="3">
+        <v>267</v>
+      </c>
+      <c r="H61" s="3">
+        <v>10</v>
+      </c>
+      <c r="I61" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+    </row>
+    <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="12">
+        <v>48</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E63" s="15">
+        <v>39429</v>
+      </c>
+      <c r="F63" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G63" s="3">
+        <v>260</v>
+      </c>
+      <c r="H63" s="3">
+        <v>10</v>
+      </c>
+      <c r="I63" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="12">
+        <v>49</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E64" s="15">
+        <v>26752</v>
+      </c>
+      <c r="F64" s="3">
+        <v>3930</v>
+      </c>
+      <c r="G64" s="3">
+        <v>262</v>
+      </c>
+      <c r="H64" s="3">
+        <v>8</v>
+      </c>
+      <c r="I64" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="12">
+        <v>50</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E65" s="15">
+        <v>39429</v>
+      </c>
+      <c r="F65" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G65" s="3">
+        <v>240</v>
+      </c>
+      <c r="H65" s="3">
+        <v>10</v>
+      </c>
+      <c r="I65" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="12">
+        <v>51</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E66" s="15">
+        <v>38167</v>
+      </c>
+      <c r="F66" s="3">
+        <v>3660</v>
+      </c>
+      <c r="G66" s="3">
+        <v>244</v>
+      </c>
+      <c r="H66" s="3">
+        <v>9</v>
+      </c>
+      <c r="I66" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="12">
+        <v>52</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E67" s="15">
+        <v>26752</v>
+      </c>
+      <c r="F67" s="3">
+        <v>3930</v>
+      </c>
+      <c r="G67" s="3">
+        <v>262</v>
+      </c>
+      <c r="H67" s="3">
+        <v>8</v>
+      </c>
+      <c r="I67" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="12">
+        <v>53</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E68" s="15">
+        <v>28780</v>
+      </c>
+      <c r="F68" s="3">
+        <v>3870</v>
+      </c>
+      <c r="G68" s="3">
+        <v>258</v>
+      </c>
+      <c r="H68" s="3">
+        <v>8</v>
+      </c>
+      <c r="I68" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="12">
+        <v>54</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E69" s="15">
+        <v>26752</v>
+      </c>
+      <c r="F69" s="3">
+        <v>3930</v>
+      </c>
+      <c r="G69" s="3">
+        <v>262</v>
+      </c>
+      <c r="H69" s="3">
+        <v>8</v>
+      </c>
+      <c r="I69" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="12">
+        <v>55</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E70" s="15">
+        <v>38308</v>
+      </c>
+      <c r="F70" s="3">
+        <v>4110</v>
+      </c>
+      <c r="G70" s="3">
+        <v>274</v>
+      </c>
+      <c r="H70" s="3">
+        <v>8</v>
+      </c>
+      <c r="I70" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+    </row>
+    <row r="72" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="12">
+        <v>56</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F72" s="3">
+        <v>3135</v>
+      </c>
+      <c r="G72" s="3">
+        <v>209</v>
+      </c>
+      <c r="H72" s="3">
+        <v>6</v>
+      </c>
+      <c r="I72" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="12">
+        <v>57</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F73" s="3">
+        <v>3135</v>
+      </c>
+      <c r="G73" s="3">
+        <v>209</v>
+      </c>
+      <c r="H73" s="3">
+        <v>7</v>
+      </c>
+      <c r="I73" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="12">
+        <v>58</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F74" s="3">
+        <v>3525</v>
+      </c>
+      <c r="G74" s="3">
+        <v>235</v>
+      </c>
+      <c r="H74" s="3">
+        <v>6</v>
+      </c>
+      <c r="I74" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="12">
+        <v>59</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F75" s="3">
+        <v>2790</v>
+      </c>
+      <c r="G75" s="3">
+        <v>186</v>
+      </c>
+      <c r="H75" s="3">
+        <v>8</v>
+      </c>
+      <c r="I75" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="12">
+        <v>60</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F76" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G76" s="3">
+        <v>200</v>
+      </c>
+      <c r="H76" s="3">
+        <v>8</v>
+      </c>
+      <c r="I76" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+    </row>
+    <row r="78" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="12">
+        <v>61</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" s="3">
+        <v>40</v>
+      </c>
+      <c r="E78" s="15">
+        <v>39429</v>
+      </c>
+      <c r="F78" s="3">
+        <v>3210</v>
+      </c>
+      <c r="G78" s="3">
+        <v>214</v>
+      </c>
+      <c r="H78" s="3">
+        <v>8</v>
+      </c>
+      <c r="I78" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="12">
+        <v>62</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E79" s="15">
+        <v>26697</v>
+      </c>
+      <c r="F79" s="3">
+        <v>3210</v>
+      </c>
+      <c r="G79" s="3">
+        <v>214</v>
+      </c>
+      <c r="H79" s="3">
+        <v>8</v>
+      </c>
+      <c r="I79" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="12">
+        <v>63</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F80" s="3">
+        <v>3090</v>
+      </c>
+      <c r="G80" s="3">
+        <v>206</v>
+      </c>
+      <c r="H80" s="3">
+        <v>6</v>
+      </c>
+      <c r="I80" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="12">
+        <v>64</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E81" s="15">
+        <v>26697</v>
+      </c>
+      <c r="F81" s="3">
+        <v>2850</v>
+      </c>
+      <c r="G81" s="3">
+        <v>190</v>
+      </c>
+      <c r="H81" s="3">
+        <v>6</v>
+      </c>
+      <c r="I81" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="12">
+        <v>65</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E82" s="15">
+        <v>26697</v>
+      </c>
+      <c r="F82" s="3">
+        <v>3060</v>
+      </c>
+      <c r="G82" s="3">
+        <v>204</v>
+      </c>
+      <c r="H82" s="3">
+        <v>8</v>
+      </c>
+      <c r="I82" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+    </row>
+    <row r="84" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="12">
+        <v>66</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E84" s="15">
+        <v>26613</v>
+      </c>
+      <c r="F84" s="3">
+        <v>2520</v>
+      </c>
+      <c r="G84" s="3">
+        <v>168</v>
+      </c>
+      <c r="H84" s="3">
+        <v>6</v>
+      </c>
+      <c r="I84" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="12">
+        <v>67</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E85" s="15">
+        <v>26613</v>
+      </c>
+      <c r="F85" s="3">
+        <v>2520</v>
+      </c>
+      <c r="G85" s="3">
+        <v>168</v>
+      </c>
+      <c r="H85" s="3">
+        <v>6</v>
+      </c>
+      <c r="I85" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="12">
+        <v>68</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E86" s="15">
+        <v>26613</v>
+      </c>
+      <c r="F86" s="3">
+        <v>2520</v>
+      </c>
+      <c r="G86" s="3">
+        <v>168</v>
+      </c>
+      <c r="H86" s="3">
+        <v>6</v>
+      </c>
+      <c r="I86" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="12">
+        <v>69</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E87" s="15">
+        <v>26613</v>
+      </c>
+      <c r="F87" s="3">
+        <v>2520</v>
+      </c>
+      <c r="G87" s="3">
+        <v>168</v>
+      </c>
+      <c r="H87" s="3">
+        <v>6</v>
+      </c>
+      <c r="I87" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
+    </row>
+    <row r="89" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="12">
+        <v>70</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E89" s="15">
+        <v>35860</v>
+      </c>
+      <c r="F89" s="3">
+        <v>2880</v>
+      </c>
+      <c r="G89" s="3">
+        <v>192</v>
+      </c>
+      <c r="H89" s="3">
+        <v>8</v>
+      </c>
+      <c r="I89" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="12">
+        <v>71</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E90" s="15">
+        <v>35860</v>
+      </c>
+      <c r="F90" s="3">
+        <v>2880</v>
+      </c>
+      <c r="G90" s="3">
+        <v>192</v>
+      </c>
+      <c r="H90" s="3">
+        <v>8</v>
+      </c>
+      <c r="I90" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="12">
+        <v>72</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E91" s="15">
+        <v>35860</v>
+      </c>
+      <c r="F91" s="3">
+        <v>2880</v>
+      </c>
+      <c r="G91" s="3">
+        <v>192</v>
+      </c>
+      <c r="H91" s="3">
+        <v>8</v>
+      </c>
+      <c r="I91" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="12">
+        <v>73</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E92" s="15">
+        <v>36263</v>
+      </c>
+      <c r="F92" s="3">
+        <v>2790</v>
+      </c>
+      <c r="G92" s="3">
+        <v>186</v>
+      </c>
+      <c r="H92" s="3">
+        <v>8</v>
+      </c>
+      <c r="I92" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="12">
+        <v>74</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E93" s="15">
+        <v>36263</v>
+      </c>
+      <c r="F93" s="3">
+        <v>2730</v>
+      </c>
+      <c r="G93" s="3">
+        <v>182</v>
+      </c>
+      <c r="H93" s="3">
+        <v>8</v>
+      </c>
+      <c r="I93" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="12">
+        <v>75</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E94" s="15">
+        <v>36263</v>
+      </c>
+      <c r="F94" s="3">
+        <v>2730</v>
+      </c>
+      <c r="G94" s="3">
+        <v>182</v>
+      </c>
+      <c r="H94" s="3">
+        <v>8</v>
+      </c>
+      <c r="I94" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="12">
+        <v>76</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E95" s="15">
+        <v>41416</v>
+      </c>
+      <c r="F95" s="3">
+        <v>3180</v>
+      </c>
+      <c r="G95" s="3">
+        <v>212</v>
+      </c>
+      <c r="H95" s="3">
+        <v>8</v>
+      </c>
+      <c r="I95" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="12">
+        <v>77</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E96" s="15">
+        <v>36066</v>
+      </c>
+      <c r="F96" s="3">
+        <v>2940</v>
+      </c>
+      <c r="G96" s="3">
+        <v>196</v>
+      </c>
+      <c r="H96" s="3">
+        <v>7</v>
+      </c>
+      <c r="I96" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="12">
+        <v>78</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E97" s="15">
+        <v>36066</v>
+      </c>
+      <c r="F97" s="3">
+        <v>2940</v>
+      </c>
+      <c r="G97" s="3">
+        <v>196</v>
+      </c>
+      <c r="H97" s="3">
+        <v>7</v>
+      </c>
+      <c r="I97" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="12">
+        <v>79</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E98" s="15">
+        <v>29382</v>
+      </c>
+      <c r="F98" s="3">
+        <v>2970</v>
+      </c>
+      <c r="G98" s="3">
+        <v>198</v>
+      </c>
+      <c r="H98" s="3">
+        <v>6</v>
+      </c>
+      <c r="I98" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="12">
+        <v>80</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E99" s="15">
+        <v>29382</v>
+      </c>
+      <c r="F99" s="3">
+        <v>2970</v>
+      </c>
+      <c r="G99" s="3">
+        <v>198</v>
+      </c>
+      <c r="H99" s="3">
+        <v>6</v>
+      </c>
+      <c r="I99" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="12">
+        <v>81</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E100" s="15">
+        <v>27849</v>
+      </c>
+      <c r="F100" s="3">
+        <v>2070</v>
+      </c>
+      <c r="G100" s="3">
+        <v>138</v>
+      </c>
+      <c r="H100" s="3">
+        <v>6</v>
+      </c>
+      <c r="I100" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="12">
+        <v>82</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E101" s="15">
+        <v>27849</v>
+      </c>
+      <c r="F101" s="3">
+        <v>3330</v>
+      </c>
+      <c r="G101" s="3">
+        <v>222</v>
+      </c>
+      <c r="H101" s="3">
+        <v>12</v>
+      </c>
+      <c r="I101" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="12">
+        <v>83</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E102" s="15">
+        <v>27849</v>
+      </c>
+      <c r="F102" s="3">
+        <v>3333</v>
+      </c>
+      <c r="G102" s="3">
+        <v>222</v>
+      </c>
+      <c r="H102" s="3">
+        <v>12</v>
+      </c>
+      <c r="I102" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="12">
+        <v>84</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E103" s="15">
+        <v>27849</v>
+      </c>
+      <c r="F103" s="3">
+        <v>2070</v>
+      </c>
+      <c r="G103" s="3">
+        <v>138</v>
+      </c>
+      <c r="H103" s="3">
+        <v>6</v>
+      </c>
+      <c r="I103" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="12">
+        <v>85</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E104" s="15">
+        <v>41416</v>
+      </c>
+      <c r="F104" s="3">
+        <v>3015</v>
+      </c>
+      <c r="G104" s="3">
+        <v>201</v>
+      </c>
+      <c r="H104" s="3">
+        <v>8</v>
+      </c>
+      <c r="I104" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="12">
+        <v>86</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E105" s="15">
+        <v>27849</v>
+      </c>
+      <c r="F105" s="3">
+        <v>2295</v>
+      </c>
+      <c r="G105" s="3">
+        <v>153</v>
+      </c>
+      <c r="H105" s="3">
+        <v>8</v>
+      </c>
+      <c r="I105" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="12">
+        <v>87</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E106" s="15">
+        <v>27849</v>
+      </c>
+      <c r="F106" s="3">
+        <v>2850</v>
+      </c>
+      <c r="G106" s="3">
+        <v>190</v>
+      </c>
+      <c r="H106" s="3">
+        <v>8</v>
+      </c>
+      <c r="I106" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="12">
+        <v>88</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F107" s="3">
+        <v>2865</v>
+      </c>
+      <c r="G107" s="3">
+        <v>191</v>
+      </c>
+      <c r="H107" s="3">
+        <v>7</v>
+      </c>
+      <c r="I107" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="12">
+        <v>89</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F108" s="3">
+        <v>2610</v>
+      </c>
+      <c r="G108" s="3">
+        <v>174</v>
+      </c>
+      <c r="H108" s="3">
+        <v>8</v>
+      </c>
+      <c r="I108" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B109" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="14"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="14"/>
+    </row>
+    <row r="110" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="12">
+        <v>90</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E110" s="15">
+        <v>39429</v>
+      </c>
+      <c r="F110" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G110" s="3">
+        <v>240</v>
+      </c>
+      <c r="H110" s="3">
+        <v>7</v>
+      </c>
+      <c r="I110" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="12">
+        <v>91</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E111" s="15">
+        <v>38106</v>
+      </c>
+      <c r="F111" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G111" s="3">
+        <v>180</v>
+      </c>
+      <c r="H111" s="3">
+        <v>7</v>
+      </c>
+      <c r="I111" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="12">
+        <v>92</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E112" s="15">
+        <v>41780</v>
+      </c>
+      <c r="F112" s="3">
+        <v>3780</v>
+      </c>
+      <c r="G112" s="3">
+        <v>252</v>
+      </c>
+      <c r="H112" s="3">
+        <v>8</v>
+      </c>
+      <c r="I112" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="12">
+        <v>93</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E113" s="15">
+        <v>27885</v>
+      </c>
+      <c r="F113" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G113" s="3">
+        <v>200</v>
+      </c>
+      <c r="H113" s="3">
+        <v>8</v>
+      </c>
+      <c r="I113" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="12">
+        <v>94</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E114" s="15">
+        <v>26736</v>
+      </c>
+      <c r="F114" s="3">
+        <v>2520</v>
+      </c>
+      <c r="G114" s="3">
+        <v>168</v>
+      </c>
+      <c r="H114" s="3">
+        <v>6</v>
+      </c>
+      <c r="I114" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="12">
+        <v>95</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E115" s="15">
+        <v>26736</v>
+      </c>
+      <c r="F115" s="3">
+        <v>2520</v>
+      </c>
+      <c r="G115" s="3">
+        <v>168</v>
+      </c>
+      <c r="H115" s="3">
+        <v>6</v>
+      </c>
+      <c r="I115" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="12">
+        <v>96</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E116" s="15">
+        <v>26736</v>
+      </c>
+      <c r="F116" s="3">
+        <v>2520</v>
+      </c>
+      <c r="G116" s="3">
+        <v>168</v>
+      </c>
+      <c r="H116" s="3">
+        <v>6</v>
+      </c>
+      <c r="I116" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B117" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="14"/>
+      <c r="H117" s="14"/>
+      <c r="I117" s="14"/>
+    </row>
+    <row r="118" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="12">
+        <v>97</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E118" s="15">
+        <v>26736</v>
+      </c>
+      <c r="F118" s="3">
+        <v>2670</v>
+      </c>
+      <c r="G118" s="3">
+        <v>178</v>
+      </c>
+      <c r="H118" s="3">
+        <v>6</v>
+      </c>
+      <c r="I118" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="12">
+        <v>98</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E119" s="15">
+        <v>26736</v>
+      </c>
+      <c r="F119" s="3">
+        <v>2670</v>
+      </c>
+      <c r="G119" s="3">
+        <v>178</v>
+      </c>
+      <c r="H119" s="3">
+        <v>6</v>
+      </c>
+      <c r="I119" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="12">
+        <v>99</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E120" s="15">
+        <v>26736</v>
+      </c>
+      <c r="F120" s="3">
+        <v>2670</v>
+      </c>
+      <c r="G120" s="3">
+        <v>178</v>
+      </c>
+      <c r="H120" s="3">
+        <v>6</v>
+      </c>
+      <c r="I120" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="12">
+        <v>100</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E121" s="15">
+        <v>26736</v>
+      </c>
+      <c r="F121" s="3">
+        <v>2670</v>
+      </c>
+      <c r="G121" s="3">
+        <v>178</v>
+      </c>
+      <c r="H121" s="3">
+        <v>6</v>
+      </c>
+      <c r="I121" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B122" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="14"/>
+      <c r="H122" s="14"/>
+      <c r="I122" s="14"/>
+    </row>
+    <row r="123" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="12">
+        <v>101</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" s="3">
+        <v>40</v>
+      </c>
+      <c r="E123" s="15">
+        <v>39429</v>
+      </c>
+      <c r="F123" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G123" s="3">
+        <v>180</v>
+      </c>
+      <c r="H123" s="3">
+        <v>7</v>
+      </c>
+      <c r="I123" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="12">
+        <v>102</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F124" s="3">
+        <v>3180</v>
+      </c>
+      <c r="G124" s="3">
+        <v>212</v>
+      </c>
+      <c r="H124" s="3">
+        <v>8</v>
+      </c>
+      <c r="I124" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="12">
+        <v>103</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E125" s="15">
+        <v>26697</v>
+      </c>
+      <c r="F125" s="3">
+        <v>3960</v>
+      </c>
+      <c r="G125" s="3">
+        <v>264</v>
+      </c>
+      <c r="H125" s="3">
+        <v>8</v>
+      </c>
+      <c r="I125" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B126" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c r="G126" s="14"/>
+      <c r="H126" s="14"/>
+      <c r="I126" s="14"/>
+    </row>
+    <row r="127" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="12">
+        <v>104</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E127" s="15">
+        <v>26613</v>
+      </c>
+      <c r="F127" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G127" s="3">
+        <v>160</v>
+      </c>
+      <c r="H127" s="3">
+        <v>8</v>
+      </c>
+      <c r="I127" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="12">
+        <v>105</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E128" s="15">
+        <v>26613</v>
+      </c>
+      <c r="F128" s="3">
+        <v>3030</v>
+      </c>
+      <c r="G128" s="3">
+        <v>202</v>
+      </c>
+      <c r="H128" s="3">
+        <v>8</v>
+      </c>
+      <c r="I128" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="12">
+        <v>106</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E129" s="15">
+        <v>26613</v>
+      </c>
+      <c r="F129" s="3">
+        <v>3030</v>
+      </c>
+      <c r="G129" s="3">
+        <v>202</v>
+      </c>
+      <c r="H129" s="3">
+        <v>8</v>
+      </c>
+      <c r="I129" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="12">
+        <v>107</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E130" s="15">
+        <v>27499</v>
+      </c>
+      <c r="F130" s="3">
+        <v>2520</v>
+      </c>
+      <c r="G130" s="3">
+        <v>168</v>
+      </c>
+      <c r="H130" s="3">
+        <v>6</v>
+      </c>
+      <c r="I130" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="12">
+        <v>108</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F131" s="3">
+        <v>2910</v>
+      </c>
+      <c r="G131" s="3">
+        <v>194</v>
+      </c>
+      <c r="H131" s="3">
+        <v>6</v>
+      </c>
+      <c r="I131" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="12">
+        <v>109</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E132" s="15">
+        <v>27499</v>
+      </c>
+      <c r="F132" s="3">
+        <v>2520</v>
+      </c>
+      <c r="G132" s="3">
+        <v>168</v>
+      </c>
+      <c r="H132" s="3">
+        <v>6</v>
+      </c>
+      <c r="I132" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="12">
+        <v>110</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E133" s="15">
+        <v>26613</v>
+      </c>
+      <c r="F133" s="3">
+        <v>2640</v>
+      </c>
+      <c r="G133" s="3">
+        <v>176</v>
+      </c>
+      <c r="H133" s="3">
+        <v>6</v>
+      </c>
+      <c r="I133" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="12">
+        <v>111</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E134" s="15">
+        <v>26613</v>
+      </c>
+      <c r="F134" s="3">
+        <v>2955</v>
+      </c>
+      <c r="G134" s="3">
+        <v>197</v>
+      </c>
+      <c r="H134" s="3">
+        <v>7</v>
+      </c>
+      <c r="I134" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="12">
+        <v>112</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E135" s="15">
+        <v>26612</v>
+      </c>
+      <c r="F135" s="3">
+        <v>2955</v>
+      </c>
+      <c r="G135" s="3">
+        <v>197</v>
+      </c>
+      <c r="H135" s="3">
+        <v>8</v>
+      </c>
+      <c r="I135" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="12">
+        <v>113</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E136" s="15">
+        <v>36984</v>
+      </c>
+      <c r="F136" s="3">
+        <v>3120</v>
+      </c>
+      <c r="G136" s="3">
+        <v>208</v>
+      </c>
+      <c r="H136" s="3">
+        <v>7</v>
+      </c>
+      <c r="I136" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="12">
+        <v>114</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E137" s="15">
+        <v>36984</v>
+      </c>
+      <c r="F137" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G137" s="3">
+        <v>200</v>
+      </c>
+      <c r="H137" s="3">
+        <v>8</v>
+      </c>
+      <c r="I137" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B138" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c r="G138" s="14"/>
+      <c r="H138" s="14"/>
+      <c r="I138" s="14"/>
+    </row>
+    <row r="139" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="12">
+        <v>115</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E139" s="15">
+        <v>26568</v>
+      </c>
+      <c r="F139" s="3">
+        <v>2640</v>
+      </c>
+      <c r="G139" s="3">
+        <v>176</v>
+      </c>
+      <c r="H139" s="3">
+        <v>8</v>
+      </c>
+      <c r="I139" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="12">
+        <v>116</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E140" s="15">
+        <v>26568</v>
+      </c>
+      <c r="F140" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G140" s="3">
+        <v>180</v>
+      </c>
+      <c r="H140" s="3">
+        <v>6</v>
+      </c>
+      <c r="I140" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="12">
+        <v>117</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E141" s="15">
+        <v>26568</v>
+      </c>
+      <c r="F141" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G141" s="3">
+        <v>180</v>
+      </c>
+      <c r="H141" s="3">
+        <v>6</v>
+      </c>
+      <c r="I141" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="12">
+        <v>118</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E142" s="15">
+        <v>26568</v>
+      </c>
+      <c r="F142" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G142" s="3">
+        <v>180</v>
+      </c>
+      <c r="H142" s="3">
+        <v>6</v>
+      </c>
+      <c r="I142" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="12">
+        <v>119</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E143" s="15">
+        <v>26568</v>
+      </c>
+      <c r="F143" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G143" s="3">
+        <v>180</v>
+      </c>
+      <c r="H143" s="3">
+        <v>6</v>
+      </c>
+      <c r="I143" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="12">
+        <v>120</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E144" s="15">
+        <v>26568</v>
+      </c>
+      <c r="F144" s="3">
+        <v>2430</v>
+      </c>
+      <c r="G144" s="3">
+        <v>162</v>
+      </c>
+      <c r="H144" s="3">
+        <v>7</v>
+      </c>
+      <c r="I144" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="12">
+        <v>121</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E145" s="15">
+        <v>26568</v>
+      </c>
+      <c r="F145" s="3">
+        <v>2880</v>
+      </c>
+      <c r="G145" s="3">
+        <v>192</v>
+      </c>
+      <c r="H145" s="3">
+        <v>8</v>
+      </c>
+      <c r="I145" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="12">
+        <v>122</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E146" s="15">
+        <v>26568</v>
+      </c>
+      <c r="F146" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G146" s="3">
+        <v>180</v>
+      </c>
+      <c r="H146" s="3">
+        <v>6</v>
+      </c>
+      <c r="I146" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="12">
+        <v>123</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E147" s="15">
+        <v>39428</v>
+      </c>
+      <c r="F147" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G147" s="3">
+        <v>180</v>
+      </c>
+      <c r="H147" s="3">
+        <v>6</v>
+      </c>
+      <c r="I147" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="12">
+        <v>124</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E148" s="15">
+        <v>26568</v>
+      </c>
+      <c r="F148" s="3">
+        <v>2640</v>
+      </c>
+      <c r="G148" s="3">
+        <v>176</v>
+      </c>
+      <c r="H148" s="3">
+        <v>6</v>
+      </c>
+      <c r="I148" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="12">
+        <v>125</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E149" s="15">
+        <v>26568</v>
+      </c>
+      <c r="F149" s="3">
+        <v>2460</v>
+      </c>
+      <c r="G149" s="3">
+        <v>164</v>
+      </c>
+      <c r="H149" s="3">
+        <v>6</v>
+      </c>
+      <c r="I149" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="12">
+        <v>126</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E150" s="15">
+        <v>39428</v>
+      </c>
+      <c r="F150" s="3">
+        <v>2520</v>
+      </c>
+      <c r="G150" s="3">
+        <v>168</v>
+      </c>
+      <c r="H150" s="3">
+        <v>7</v>
+      </c>
+      <c r="I150" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="12">
+        <v>127</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E151" s="15">
+        <v>31940</v>
+      </c>
+      <c r="F151" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G151" s="3">
+        <v>180</v>
+      </c>
+      <c r="H151" s="3">
+        <v>6</v>
+      </c>
+      <c r="I151" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="12">
+        <v>128</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E152" s="15">
+        <v>31940</v>
+      </c>
+      <c r="F152" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G152" s="3">
+        <v>180</v>
+      </c>
+      <c r="H152" s="3">
+        <v>6</v>
+      </c>
+      <c r="I152" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="12">
+        <v>129</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F153" s="3">
+        <v>2460</v>
+      </c>
+      <c r="G153" s="3">
+        <v>164</v>
+      </c>
+      <c r="H153" s="3">
+        <v>6</v>
+      </c>
+      <c r="I153" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="12">
+        <v>130</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F154" s="3">
+        <v>3240</v>
+      </c>
+      <c r="G154" s="3">
+        <v>216</v>
+      </c>
+      <c r="H154" s="3">
+        <v>9</v>
+      </c>
+      <c r="I154" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B155" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="C155" s="14"/>
+      <c r="D155" s="14"/>
+      <c r="E155" s="14"/>
+      <c r="F155" s="14"/>
+      <c r="G155" s="14"/>
+      <c r="H155" s="14"/>
+      <c r="I155" s="14"/>
+    </row>
+    <row r="156" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="12">
+        <v>131</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E156" s="15">
+        <v>27201</v>
+      </c>
+      <c r="F156" s="3">
+        <v>4230</v>
+      </c>
+      <c r="G156" s="3">
+        <v>282</v>
+      </c>
+      <c r="H156" s="3">
+        <v>10</v>
+      </c>
+      <c r="I156" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="12">
+        <v>132</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E157" s="15">
+        <v>27201</v>
+      </c>
+      <c r="F157" s="3">
+        <v>4140</v>
+      </c>
+      <c r="G157" s="3">
+        <v>276</v>
+      </c>
+      <c r="H157" s="3">
+        <v>10</v>
+      </c>
+      <c r="I157" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="12">
+        <v>133</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E158" s="15">
+        <v>27201</v>
+      </c>
+      <c r="F158" s="3">
+        <v>3330</v>
+      </c>
+      <c r="G158" s="3">
+        <v>222</v>
+      </c>
+      <c r="H158" s="3">
+        <v>7</v>
+      </c>
+      <c r="I158" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B159" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C159" s="14"/>
+      <c r="D159" s="14"/>
+      <c r="E159" s="14"/>
+      <c r="F159" s="14"/>
+      <c r="G159" s="14"/>
+      <c r="H159" s="14"/>
+      <c r="I159" s="14"/>
+    </row>
+    <row r="160" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="12">
+        <v>134</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E160" s="15">
+        <v>35089</v>
+      </c>
+      <c r="F160" s="3">
+        <v>2670</v>
+      </c>
+      <c r="G160" s="3">
+        <v>178</v>
+      </c>
+      <c r="H160" s="3">
+        <v>6</v>
+      </c>
+      <c r="I160" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B161" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C161" s="14"/>
+      <c r="D161" s="14"/>
+      <c r="E161" s="14"/>
+      <c r="F161" s="14"/>
+      <c r="G161" s="14"/>
+      <c r="H161" s="14"/>
+      <c r="I161" s="14"/>
+    </row>
+    <row r="162" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="12">
+        <v>135</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D162" s="3">
+        <v>40</v>
+      </c>
+      <c r="E162" s="15">
+        <v>39429</v>
+      </c>
+      <c r="F162" s="3">
+        <v>3960</v>
+      </c>
+      <c r="G162" s="3">
+        <v>264</v>
+      </c>
+      <c r="H162" s="3">
+        <v>8</v>
+      </c>
+      <c r="I162" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="12">
+        <v>136</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E163" s="15">
+        <v>26736</v>
+      </c>
+      <c r="F163" s="3">
+        <v>2760</v>
+      </c>
+      <c r="G163" s="3">
+        <v>184</v>
+      </c>
+      <c r="H163" s="3">
+        <v>6</v>
+      </c>
+      <c r="I163" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="12">
+        <v>137</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E164" s="15">
+        <v>26736</v>
+      </c>
+      <c r="F164" s="3">
+        <v>2760</v>
+      </c>
+      <c r="G164" s="3">
+        <v>184</v>
+      </c>
+      <c r="H164" s="3">
+        <v>6</v>
+      </c>
+      <c r="I164" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="12">
+        <v>138</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F165" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G165" s="3">
+        <v>220</v>
+      </c>
+      <c r="H165" s="3">
+        <v>8</v>
+      </c>
+      <c r="I165" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B166" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="C166" s="14"/>
+      <c r="D166" s="14"/>
+      <c r="E166" s="14"/>
+      <c r="F166" s="14"/>
+      <c r="G166" s="14"/>
+      <c r="H166" s="14"/>
+      <c r="I166" s="14"/>
+    </row>
+    <row r="167" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="12">
+        <v>139</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E167" s="15">
+        <v>28409</v>
+      </c>
+      <c r="F167" s="3">
+        <v>2790</v>
+      </c>
+      <c r="G167" s="3">
+        <v>186</v>
+      </c>
+      <c r="H167" s="3">
+        <v>6</v>
+      </c>
+      <c r="I167" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A172"/>
+      <c r="B172"/>
+      <c r="G172" s="16"/>
+      <c r="J172"/>
+      <c r="K172"/>
+      <c r="L172"/>
+      <c r="M172"/>
+      <c r="N172"/>
+      <c r="O172"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>